--- a/ThucHanh/QTHTTT_Ca4_Lab2_LamPhucNghi.xlsx
+++ b/ThucHanh/QTHTTT_Ca4_Lab2_LamPhucNghi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NghiLam\OneDrive\Desktop\QuanTriHeThongThongTin_HK2_20_21\ThucHanh\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="45" windowWidth="9165" windowHeight="11475" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11565" windowHeight="4455" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Vi du 14" sheetId="1" r:id="rId1"/>
@@ -20,21 +25,18 @@
     <sheet name="TongHop1" sheetId="11" r:id="rId11"/>
     <sheet name="TongHop3" sheetId="12" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Vi du 18'!$A$3:$E$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Vi du 19'!$B$4:$F$14</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="5">'Vi du 19'!$H$36:$I$38</definedName>
     <definedName name="_xlnm.Extract" localSheetId="5">'Vi du 19'!$B$37:$F$37</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="317">
   <si>
     <t>VÍ DỤ VỀ HÀM TRONG MICROSOFT EXCEL</t>
   </si>
@@ -1353,11 +1355,14 @@
   <si>
     <t>- Các trường hợp khác thì không Thưởng</t>
   </si>
+  <si>
+    <t>index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1695,7 +1700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="80">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -2735,15 +2740,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -2785,6 +2781,41 @@
       <top style="double">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2802,7 +2833,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2992,70 +3023,63 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3065,12 +3089,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="31" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3095,13 +3113,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3132,18 +3143,9 @@
     <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3156,47 +3158,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3400,6 +3378,210 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -3407,45 +3589,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3455,179 +3598,73 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3648,12 +3685,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3667,7 +3707,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3675,7 +3714,6 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3705,6 +3743,13 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3712,6 +3757,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3760,6 +3808,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDCF-4356-A343-33D0C6003B5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3777,6 +3830,13 @@
           </c:tx>
           <c:explosion val="25"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3784,6 +3844,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3832,6 +3895,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDCF-4356-A343-33D0C6003B5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3846,7 +3914,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3862,7 +3929,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3880,7 +3947,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3958,6 +4024,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3CE-4316-A9EA-953E3AF242C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4010,6 +4081,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3CE-4316-A9EA-953E3AF242C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4062,6 +4138,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3CE-4316-A9EA-953E3AF242C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6280,156 +6361,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Bai 1"/>
-      <sheetName val="Bai 2"/>
-      <sheetName val="Bai 3"/>
-      <sheetName val="Bai 4"/>
-      <sheetName val="Bai 5"/>
-      <sheetName val="Vi du 1"/>
-      <sheetName val="Vi du 2"/>
-      <sheetName val="Vi du 3"/>
-      <sheetName val="Vi du 4"/>
-      <sheetName val="Vi du 5"/>
-      <sheetName val="Vi du 6"/>
-      <sheetName val="Vi du 7"/>
-      <sheetName val="Vi du 8"/>
-      <sheetName val="Vi du 9"/>
-      <sheetName val="Vi du 10"/>
-      <sheetName val="Vi du 11"/>
-      <sheetName val="Vi du 12"/>
-      <sheetName val="Vi du 13"/>
-      <sheetName val="Vi du 14"/>
-      <sheetName val="Vi du 15"/>
-      <sheetName val="Vi du 16"/>
-      <sheetName val="Vi du 17"/>
-      <sheetName val="Vi du 18"/>
-      <sheetName val="Vi du 19"/>
-      <sheetName val="Vi du 20"/>
-      <sheetName val="Vi du 21"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>CAM</v>
-          </cell>
-          <cell r="C3">
-            <v>1200</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>XOAI</v>
-          </cell>
-          <cell r="C4">
-            <v>1500</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>QUIT</v>
-          </cell>
-          <cell r="C5">
-            <v>1300</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>COC</v>
-          </cell>
-          <cell r="C6">
-            <v>5000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25">
-        <row r="3">
-          <cell r="B3">
-            <v>1996</v>
-          </cell>
-          <cell r="C3">
-            <v>1997</v>
-          </cell>
-          <cell r="D3">
-            <v>1998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>An Giang</v>
-          </cell>
-          <cell r="B4">
-            <v>2500000</v>
-          </cell>
-          <cell r="C4">
-            <v>1600000</v>
-          </cell>
-          <cell r="D4">
-            <v>1800000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Tien Giang</v>
-          </cell>
-          <cell r="B5">
-            <v>1500000</v>
-          </cell>
-          <cell r="C5">
-            <v>1200000</v>
-          </cell>
-          <cell r="D5">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Dong Thap</v>
-          </cell>
-          <cell r="B6">
-            <v>1400000</v>
-          </cell>
-          <cell r="C6">
-            <v>1800000</v>
-          </cell>
-          <cell r="D6">
-            <v>1700000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6473,7 +6404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6508,7 +6439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7396,420 +7327,477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="118" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="118" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="118" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="118" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="118" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="118" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="118" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="118" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="118"/>
+    <col min="1" max="1" width="9.42578125" style="116" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="116" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="116" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="116" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="116" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="116" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="116" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="133" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:8" s="127" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="311" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-    </row>
-    <row r="2" spans="1:8" s="133" customFormat="1" ht="49.5">
-      <c r="A2" s="134" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+    </row>
+    <row r="2" spans="1:8" s="127" customFormat="1" ht="49.5">
+      <c r="A2" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="116"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="139" t="str">
-        <f>VLOOKUP(Bai3.10!B3,Bai3.10!$B$13:$C$16,2,0)</f>
+      <c r="C3" s="133" t="str">
+        <f>IFERROR(VLOOKUP(Bai3.10!B3,Bai3.10!$B$13:$C$16,2,0),$C$16)</f>
         <v>Bóng đèn Tròn</v>
       </c>
-      <c r="D3" s="101">
+      <c r="D3" s="99">
         <v>836</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142">
+      <c r="E3" s="134">
+        <f>VLOOKUP(C3,$C$13:$E$16,2,0)*D3</f>
+        <v>1254000</v>
+      </c>
+      <c r="F3" s="135">
+        <f>IF(E3=LARGE($E$3:$E$8,COUNTIF($E$3:$E$8,MAX($E$3:$E$8))+1),50000,IF(E3=MAX($E$3:$E$8),100000,0))</f>
         <v>0</v>
       </c>
+      <c r="G3" s="136">
+        <v>0</v>
+      </c>
+      <c r="H3" s="339">
+        <f>MAX(E3:E8)</f>
+        <v>4000000</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="139" t="e">
-        <f>VLOOKUP(Bai3.10!B4,Bai3.10!$B$13:$C$16,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="101">
+      <c r="C4" s="133" t="str">
+        <f>IFERROR(VLOOKUP(Bai3.10!B4,Bai3.10!$B$13:$C$16,2,0),$C$16)</f>
+        <v>Bóng đèn đặc biệt</v>
+      </c>
+      <c r="D4" s="99">
         <v>400</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="142">
+      <c r="E4" s="134">
+        <f t="shared" ref="E4:E8" si="0">VLOOKUP(C4,$C$13:$E$16,2,0)*D4</f>
+        <v>4000000</v>
+      </c>
+      <c r="F4" s="135">
+        <f t="shared" ref="F4:F9" si="1">IF(E4=LARGE($E$3:$E$8,COUNTIF($E$3:$E$8,MAX($E$3:$E$8))+1),50000,IF(E4=MAX($E$3:$E$8),100000,0))</f>
         <v>100000</v>
       </c>
+      <c r="G4" s="136">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="116">
+        <f>COUNTIF(E3:E8,H3)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="139" t="str">
-        <f>VLOOKUP(Bai3.10!B5,Bai3.10!$B$13:$C$16,2,0)</f>
+      <c r="C5" s="133" t="str">
+        <f>IFERROR(VLOOKUP(Bai3.10!B5,Bai3.10!$B$13:$C$16,2,0),$C$16)</f>
         <v>Bóng đèn Compact</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>174</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="142">
+      <c r="E5" s="134">
+        <f t="shared" si="0"/>
+        <v>522000</v>
+      </c>
+      <c r="F5" s="135">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G5" s="136">
+        <v>0</v>
+      </c>
+      <c r="H5" s="116">
+        <f>LARGE(E3:E8,H4+1)</f>
+        <v>2730000</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="139" t="str">
-        <f>VLOOKUP(Bai3.10!B6,Bai3.10!$B$13:$C$16,2,0)</f>
+      <c r="C6" s="133" t="str">
+        <f>IFERROR(VLOOKUP(Bai3.10!B6,Bai3.10!$B$13:$C$16,2,0),$C$16)</f>
         <v>Bóng đèn Huỳnh Quang</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="99">
         <v>800</v>
       </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="142">
+      <c r="E6" s="134">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="F6" s="135">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
+      <c r="G6" s="136">
+        <v>100000</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="139" t="e">
-        <f>VLOOKUP(Bai3.10!B7,Bai3.10!$B$13:$C$16,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="101">
+      <c r="C7" s="133" t="str">
+        <f>IFERROR(VLOOKUP(Bai3.10!B7,Bai3.10!$B$13:$C$16,2,0),$C$16)</f>
+        <v>Bóng đèn đặc biệt</v>
+      </c>
+      <c r="D7" s="99">
         <v>273</v>
       </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="142">
+      <c r="E7" s="134">
+        <f t="shared" si="0"/>
+        <v>2730000</v>
+      </c>
+      <c r="F7" s="135">
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
+      <c r="G7" s="136">
+        <v>50000</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="139" t="str">
-        <f>VLOOKUP(Bai3.10!B8,Bai3.10!$B$13:$C$16,2,0)</f>
+      <c r="C8" s="133" t="str">
+        <f>IFERROR(VLOOKUP(Bai3.10!B8,Bai3.10!$B$13:$C$16,2,0),$C$16)</f>
         <v>Bóng đèn Compact</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="99">
         <v>113</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142">
+      <c r="E8" s="134">
+        <f t="shared" si="0"/>
+        <v>339000</v>
+      </c>
+      <c r="F8" s="135">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G8" s="136">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="313" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="147"/>
+      <c r="B9" s="314"/>
+      <c r="C9" s="314"/>
+      <c r="D9" s="137">
+        <f>SUM(D3:D8)</f>
+        <v>2596</v>
+      </c>
+      <c r="E9" s="137">
+        <f t="shared" ref="E9:F9" si="2">SUM(E3:E8)</f>
+        <v>12845000</v>
+      </c>
+      <c r="F9" s="137">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="138"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="147"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-    </row>
-    <row r="11" spans="1:8" s="133" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B11" s="98" t="s">
+      <c r="A10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="1:8" s="127" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B11" s="304" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-    </row>
-    <row r="12" spans="1:8" s="133" customFormat="1" ht="51" thickTop="1" thickBot="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="149" t="s">
+      <c r="C11" s="304"/>
+      <c r="D11" s="304"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+    </row>
+    <row r="12" spans="1:8" s="127" customFormat="1" ht="51" thickTop="1" thickBot="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="315" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="E12" s="316"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="153" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="155">
+      <c r="D13" s="317">
         <v>3000</v>
       </c>
-      <c r="E13" s="156"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="102"/>
-      <c r="B14" s="157" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="159">
+      <c r="D14" s="307">
         <v>5000</v>
       </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="102"/>
-      <c r="B15" s="157" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="159">
+      <c r="D15" s="307">
         <v>1500</v>
       </c>
-      <c r="E15" s="160"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="161" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="163">
+      <c r="D16" s="309">
         <v>10000</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="117"/>
-      <c r="B20" s="102" t="s">
+      <c r="A20" s="115"/>
+      <c r="B20" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="117"/>
-      <c r="B21" s="165" t="s">
+      <c r="A21" s="115"/>
+      <c r="B21" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="117"/>
-      <c r="B22" s="165" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="116" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="117"/>
-      <c r="B24" s="118" t="s">
+      <c r="A24" s="115"/>
+      <c r="B24" s="116" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="116" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="117"/>
-      <c r="B26" s="166" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="149" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="117"/>
-      <c r="B27" s="166" t="s">
+      <c r="A27" s="115"/>
+      <c r="B27" s="149" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="117"/>
-      <c r="B28" s="166" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="149" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="99"/>
+      <c r="A30" s="97"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="99"/>
+      <c r="A31" s="97"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="133"/>
+      <c r="A32" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7831,1476 +7819,1601 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="283" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="283" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="283" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="283" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="283" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="283" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="283" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="283" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="283"/>
+    <col min="1" max="1" width="10.85546875" style="264" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="264" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="264" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="264" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="264" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="264" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="264"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="273" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="269" t="s">
+    <row r="1" spans="1:8" s="254" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A1" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="252" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="272">
+      <c r="G1" s="253">
         <v>25865</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="273" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A2" s="274" t="s">
+    <row r="2" spans="1:8" s="254" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A2" s="255" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="256" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="275" t="s">
+      <c r="C2" s="256" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="275" t="s">
+      <c r="D2" s="256" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="275" t="s">
+      <c r="E2" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="276" t="s">
+      <c r="F2" s="257" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="277" t="s">
+      <c r="G2" s="258" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="259" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="260" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="279" t="str">
+      <c r="C3" s="260" t="str">
         <f>VLOOKUP(LEFT(A3,3),$A$16:$B$18,2,0)&amp;" - "&amp;HLOOKUP(RIGHT(A3,2),$C$14:$E$15,2,0)</f>
         <v>CDRom - SamSung</v>
       </c>
-      <c r="D3" s="279">
+      <c r="D3" s="260">
         <f>INDEX($A$14:$E$18,MATCH(LEFT(A3,3),$A$14:$A$18,0),MATCH(RIGHT(A3,2),$A$14:$E$14,0))</f>
         <v>30</v>
       </c>
-      <c r="E3" s="280">
+      <c r="E3" s="261">
         <v>96</v>
       </c>
-      <c r="F3" s="281">
+      <c r="F3" s="262">
         <f>PRODUCT(D3:E3)</f>
         <v>2880</v>
       </c>
-      <c r="G3" s="282">
+      <c r="G3" s="263">
         <f>F3*$G$1</f>
         <v>74491200</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="278" t="s">
+      <c r="A4" s="259" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="260" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="279" t="str">
+      <c r="C4" s="260" t="str">
         <f t="shared" ref="C4:C8" si="0">VLOOKUP(LEFT(A4,3),$A$16:$B$18,2,0)&amp;" - "&amp;HLOOKUP(RIGHT(A4,2),$C$14:$E$15,2,0)</f>
         <v>Keyboard - Dell</v>
       </c>
-      <c r="D4" s="279">
+      <c r="D4" s="260">
         <f t="shared" ref="D4:D8" si="1">INDEX($A$14:$E$18,MATCH(LEFT(A4,3),$A$14:$A$18,0),MATCH(RIGHT(A4,2),$A$14:$E$14,0))</f>
         <v>15</v>
       </c>
-      <c r="E4" s="280">
+      <c r="E4" s="261">
         <v>35</v>
       </c>
-      <c r="F4" s="281">
+      <c r="F4" s="262">
         <f t="shared" ref="F4:F8" si="2">PRODUCT(D4:E4)</f>
         <v>525</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="263">
         <f t="shared" ref="G4:G8" si="3">F4*$G$1</f>
         <v>13579125</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="259" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="279" t="s">
+      <c r="B5" s="260" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="279" t="str">
+      <c r="C5" s="260" t="str">
         <f t="shared" si="0"/>
         <v>Mouse - IBM</v>
       </c>
-      <c r="D5" s="279">
+      <c r="D5" s="260">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E5" s="280">
+      <c r="E5" s="261">
         <v>19</v>
       </c>
-      <c r="F5" s="281">
+      <c r="F5" s="262">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="G5" s="282">
+      <c r="G5" s="263">
         <f t="shared" si="3"/>
         <v>4422915</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="259" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="260" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="279" t="str">
+      <c r="C6" s="260" t="str">
         <f t="shared" si="0"/>
         <v>Keyboard - SamSung</v>
       </c>
-      <c r="D6" s="279">
+      <c r="D6" s="260">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="261">
         <v>39</v>
       </c>
-      <c r="F6" s="281">
+      <c r="F6" s="262">
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-      <c r="G6" s="282">
+      <c r="G6" s="263">
         <f t="shared" si="3"/>
         <v>10087350</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="278" t="s">
+      <c r="A7" s="259" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="279" t="s">
+      <c r="B7" s="260" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="279" t="str">
+      <c r="C7" s="260" t="str">
         <f t="shared" si="0"/>
         <v>CDRom - Dell</v>
       </c>
-      <c r="D7" s="279">
+      <c r="D7" s="260">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E7" s="280">
+      <c r="E7" s="261">
         <v>53</v>
       </c>
-      <c r="F7" s="281">
+      <c r="F7" s="262">
         <f t="shared" si="2"/>
         <v>1060</v>
       </c>
-      <c r="G7" s="282">
+      <c r="G7" s="263">
         <f t="shared" si="3"/>
         <v>27416900</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="A8" s="278" t="s">
+      <c r="A8" s="259" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="279" t="s">
+      <c r="B8" s="260" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="279" t="str">
+      <c r="C8" s="260" t="str">
         <f t="shared" si="0"/>
         <v>Mouse - IBM</v>
       </c>
-      <c r="D8" s="279">
+      <c r="D8" s="260">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E8" s="280">
+      <c r="E8" s="261">
         <v>88</v>
       </c>
-      <c r="F8" s="281">
+      <c r="F8" s="262">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="G8" s="282">
+      <c r="G8" s="263">
         <f t="shared" si="3"/>
         <v>20485080</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="284" t="s">
+      <c r="A9" s="321" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="285"/>
-      <c r="C9" s="285"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="287">
+      <c r="B9" s="322"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="265">
         <f>SUM(E3:E8)</f>
         <v>330</v>
       </c>
-      <c r="F9" s="287">
+      <c r="F9" s="265">
         <f t="shared" ref="F9:G9" si="4">SUM(F3:F8)</f>
         <v>5818</v>
       </c>
-      <c r="G9" s="287">
+      <c r="G9" s="340">
         <f t="shared" si="4"/>
         <v>150482570</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="A10" s="288" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="341" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="289">
+      <c r="B10" s="342"/>
+      <c r="C10" s="342"/>
+      <c r="D10" s="342"/>
+      <c r="E10" s="343">
         <v>330</v>
       </c>
-      <c r="F10" s="289">
+      <c r="F10" s="343">
         <v>5818</v>
       </c>
-      <c r="G10" s="289">
+      <c r="G10" s="344">
         <v>150482570</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="A11" s="290"/>
-      <c r="B11" s="290"/>
-      <c r="C11" s="290"/>
-      <c r="D11" s="290"/>
-      <c r="F11" s="291"/>
-    </row>
-    <row r="12" spans="1:8" s="273" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="292" t="s">
+      <c r="A11" s="266"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="F11" s="267"/>
+    </row>
+    <row r="12" spans="1:8" s="254" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="324" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="292"/>
-      <c r="C12" s="292"/>
-      <c r="D12" s="292"/>
-      <c r="E12" s="292"/>
-    </row>
-    <row r="13" spans="1:8" s="273" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A13" s="293"/>
-      <c r="B13" s="294"/>
-      <c r="C13" s="295" t="s">
+      <c r="B12" s="324"/>
+      <c r="C12" s="324"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="324"/>
+    </row>
+    <row r="13" spans="1:8" s="254" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="A13" s="268"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="325" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="296"/>
-      <c r="E13" s="297"/>
-    </row>
-    <row r="14" spans="1:8" s="273" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="311"/>
-      <c r="B14" s="310"/>
-      <c r="C14" s="298" t="s">
+      <c r="D13" s="326"/>
+      <c r="E13" s="327"/>
+    </row>
+    <row r="14" spans="1:8" s="254" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="280"/>
+      <c r="B14" s="279"/>
+      <c r="C14" s="270" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="298" t="s">
+      <c r="D14" s="270" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="312" t="s">
+      <c r="E14" s="281" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="A15" s="313" t="s">
+      <c r="A15" s="282" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="279" t="s">
+      <c r="B15" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="279" t="s">
+      <c r="C15" s="260" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="279" t="s">
+      <c r="D15" s="260" t="s">
         <v>246</v>
       </c>
-      <c r="E15" s="314" t="s">
+      <c r="E15" s="283" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="273"/>
-      <c r="H15" s="273"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="313" t="s">
+      <c r="A16" s="282" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="279" t="s">
+      <c r="B16" s="260" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="279">
+      <c r="C16" s="260">
         <v>30</v>
       </c>
-      <c r="D16" s="279">
+      <c r="D16" s="260">
         <v>25</v>
       </c>
-      <c r="E16" s="314">
+      <c r="E16" s="283">
         <v>20</v>
       </c>
-      <c r="G16" s="273"/>
-      <c r="H16" s="273"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="313" t="s">
+      <c r="A17" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="279" t="s">
+      <c r="B17" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="279">
+      <c r="C17" s="260">
         <v>10</v>
       </c>
-      <c r="D17" s="279">
+      <c r="D17" s="260">
         <v>17</v>
       </c>
-      <c r="E17" s="314">
+      <c r="E17" s="283">
         <v>15</v>
       </c>
-      <c r="G17" s="273"/>
-      <c r="H17" s="273"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A18" s="315" t="s">
+      <c r="A18" s="284" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="316" t="s">
+      <c r="B18" s="285" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="316">
+      <c r="C18" s="285">
         <v>5</v>
       </c>
-      <c r="D18" s="316">
+      <c r="D18" s="285">
         <v>9</v>
       </c>
-      <c r="E18" s="317">
+      <c r="E18" s="286">
         <v>13</v>
       </c>
-      <c r="G18" s="273"/>
-      <c r="H18" s="273"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickTop="1">
-      <c r="G19" s="273"/>
-      <c r="H19" s="273"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B20" s="299" t="s">
+      <c r="B20" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="299"/>
-      <c r="D20" s="300"/>
-      <c r="G20" s="273"/>
-      <c r="H20" s="273"/>
+      <c r="C20" s="328"/>
+      <c r="D20" s="271"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B21" s="301" t="s">
+      <c r="B21" s="272" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="302" t="s">
+      <c r="C21" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="273"/>
-      <c r="H21" s="273"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="303" t="s">
+      <c r="B22" s="274" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="304">
+      <c r="C22" s="345">
         <f ca="1">SUMIF($B$3:$G$8,B22,G3:G8)</f>
         <v>94976280</v>
       </c>
-      <c r="D22" s="291"/>
-      <c r="G22" s="273"/>
-      <c r="H22" s="273"/>
+      <c r="D22" s="267"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="305" t="s">
+      <c r="B23" s="275" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="304">
+      <c r="C23" s="345">
         <f t="shared" ref="C23:C24" ca="1" si="5">SUMIF($B$3:$G$8,B23,G4:G9)</f>
         <v>31839815</v>
       </c>
-      <c r="D23" s="291"/>
-      <c r="G23" s="273"/>
-      <c r="H23" s="273"/>
+      <c r="D23" s="267"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="305" t="s">
+      <c r="B24" s="275" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="304">
+      <c r="C24" s="345">
         <f t="shared" ca="1" si="5"/>
         <v>177899470</v>
       </c>
-      <c r="D24" s="291"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="273"/>
+      <c r="D24" s="267"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="276" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="307">
+      <c r="C25" s="346">
         <f ca="1">SUM(C22:C24)</f>
         <v>304715565</v>
       </c>
-      <c r="D25" s="308"/>
+      <c r="D25" s="277"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1">
-      <c r="B26" s="309"/>
+      <c r="B26" s="278"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="283" t="s">
+      <c r="A27" s="264" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="283" t="s">
+      <c r="A28" s="264" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="283" t="s">
+      <c r="A29" s="264" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="283" t="s">
+      <c r="A30" s="264" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="283" t="s">
+      <c r="A31" s="264" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="283" t="s">
+      <c r="A32" s="264" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="320" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="320" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="320" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="320" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="320" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.5703125" style="320" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="320" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="320" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="320" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="320" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="320" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="320" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="320" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7" style="320" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="320" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="320" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="320" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" style="320" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="320"/>
+    <col min="1" max="1" width="4" style="288" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="288" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="288" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="288" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="288" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.5703125" style="288" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="288" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="288" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="288" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="288" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="288" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="288" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="288" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7" style="288" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="288" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="288" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="288" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="288" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="288"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="318"/>
-      <c r="B1" s="319" t="s">
+      <c r="A1" s="287"/>
+      <c r="B1" s="330" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
-      <c r="P1" s="319"/>
-      <c r="Q1" s="319"/>
-      <c r="R1" s="319"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330"/>
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
     </row>
     <row r="2" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="331" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="333" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="322" t="s">
+      <c r="C2" s="333" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="323" t="s">
+      <c r="D2" s="335" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="323"/>
-      <c r="N2" s="323" t="s">
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="O2" s="322" t="s">
+      <c r="O2" s="333" t="s">
         <v>268</v>
       </c>
-      <c r="P2" s="322" t="s">
+      <c r="P2" s="333" t="s">
         <v>269</v>
       </c>
-      <c r="Q2" s="322" t="s">
+      <c r="Q2" s="333" t="s">
         <v>270</v>
       </c>
-      <c r="R2" s="324" t="s">
+      <c r="R2" s="337" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="325" t="s">
+      <c r="S2" s="329" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A3" s="326"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="328" t="s">
+      <c r="A3" s="332"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="289" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="328" t="s">
+      <c r="E3" s="289" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="328" t="s">
+      <c r="F3" s="289" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="328" t="s">
+      <c r="G3" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="289" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="328" t="s">
+      <c r="I3" s="289" t="s">
         <v>277</v>
       </c>
-      <c r="J3" s="328" t="s">
+      <c r="J3" s="289" t="s">
         <v>278</v>
       </c>
-      <c r="K3" s="328" t="s">
+      <c r="K3" s="289" t="s">
         <v>279</v>
       </c>
-      <c r="L3" s="328" t="s">
+      <c r="L3" s="289" t="s">
         <v>213</v>
       </c>
-      <c r="M3" s="328" t="s">
+      <c r="M3" s="289" t="s">
         <v>280</v>
       </c>
-      <c r="N3" s="329"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="330"/>
-      <c r="S3" s="325"/>
-      <c r="T3" s="320" t="s">
+      <c r="N3" s="336"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="338"/>
+      <c r="S3" s="329"/>
+      <c r="T3" s="288" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A4" s="331">
+      <c r="A4" s="290">
         <v>1</v>
       </c>
-      <c r="B4" s="332" t="s">
+      <c r="B4" s="291" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="332" t="s">
+      <c r="C4" s="291" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="332">
+      <c r="D4" s="291">
         <v>6</v>
       </c>
-      <c r="E4" s="332">
+      <c r="E4" s="291">
         <v>5</v>
       </c>
-      <c r="F4" s="332">
+      <c r="F4" s="291">
         <v>9</v>
       </c>
-      <c r="G4" s="332">
+      <c r="G4" s="291">
         <v>4</v>
       </c>
-      <c r="H4" s="332">
+      <c r="H4" s="291">
         <v>5</v>
       </c>
-      <c r="I4" s="332">
+      <c r="I4" s="291">
         <v>6</v>
       </c>
-      <c r="J4" s="332">
+      <c r="J4" s="291">
         <v>9</v>
       </c>
-      <c r="K4" s="332">
+      <c r="K4" s="291">
         <v>6</v>
       </c>
-      <c r="L4" s="332">
+      <c r="L4" s="291">
         <v>6</v>
       </c>
-      <c r="M4" s="332">
+      <c r="M4" s="291">
         <v>7</v>
       </c>
-      <c r="N4" s="333">
-        <f>SUM(D4:M4)</f>
-        <v>63</v>
-      </c>
-      <c r="O4" s="334"/>
-      <c r="P4" s="334"/>
-      <c r="Q4" s="334"/>
-      <c r="R4" s="335"/>
-      <c r="S4" s="336" t="s">
+      <c r="N4" s="292">
+        <f>AVERAGE(D4:M4,SUMIF($D$3:$M$3,C4,D4:M4))</f>
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="O4" s="293" t="str">
+        <f>IF(MIN(D4:M4)&gt;=5,"Đạt",IF(OR(SUMIF($D$3:$M$3,C4,D4:M4)&lt;5,COUNTIF(D4:M4,"&lt;5")&gt;=2),"Hỏng","Thi Lại"))</f>
+        <v>Thi Lại</v>
+      </c>
+      <c r="P4" s="293" t="str">
+        <f>IF(O4&lt;&gt;"Thi Lại","",INDEX($D$3:$M$3,MATCH(MIN(D4:M4),D4:M4,0)))</f>
+        <v>Văn</v>
+      </c>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="294"/>
+      <c r="S4" s="295" t="s">
         <v>282</v>
       </c>
-      <c r="T4" s="320">
+      <c r="T4" s="288">
         <f>COUNTIF(D4:M4,"&lt;5")</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A5" s="331">
+      <c r="A5" s="290">
         <v>2</v>
       </c>
-      <c r="B5" s="332" t="s">
+      <c r="B5" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="332" t="s">
+      <c r="C5" s="291" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="332">
+      <c r="D5" s="291">
         <v>10</v>
       </c>
-      <c r="E5" s="332">
+      <c r="E5" s="291">
         <v>8</v>
       </c>
-      <c r="F5" s="332">
+      <c r="F5" s="291">
         <v>9</v>
       </c>
-      <c r="G5" s="332">
+      <c r="G5" s="291">
         <v>9</v>
       </c>
-      <c r="H5" s="332">
+      <c r="H5" s="291">
         <v>9</v>
       </c>
-      <c r="I5" s="332">
+      <c r="I5" s="291">
         <v>10</v>
       </c>
-      <c r="J5" s="332">
+      <c r="J5" s="291">
         <v>10</v>
       </c>
-      <c r="K5" s="332">
+      <c r="K5" s="291">
         <v>9</v>
       </c>
-      <c r="L5" s="332">
+      <c r="L5" s="291">
         <v>10</v>
       </c>
-      <c r="M5" s="332">
+      <c r="M5" s="291">
         <v>10</v>
       </c>
-      <c r="N5" s="333"/>
-      <c r="O5" s="334"/>
-      <c r="P5" s="334"/>
-      <c r="Q5" s="334"/>
-      <c r="R5" s="335"/>
-      <c r="S5" s="336">
+      <c r="N5" s="292">
+        <f>AVERAGE(D5:M5,SUMIF($D$3:$M$3,C5,D5:M5))</f>
+        <v>9.454545454545455</v>
+      </c>
+      <c r="O5" s="293" t="str">
+        <f t="shared" ref="O5:O16" si="0">IF(MIN(D5:M5)&gt;=5,"Đạt",IF(OR(SUMIF($D$3:$M$3,C5,D5:M5)&lt;5,COUNTIF(D5:M5,"&lt;5")&gt;=2),"Hỏng","Thi Lại"))</f>
+        <v>Đạt</v>
+      </c>
+      <c r="P5" s="293" t="str">
+        <f t="shared" ref="P5:P16" si="1">IF(O5&lt;&gt;"Thi Lại","",INDEX($D$3:$M$3,MATCH(MIN(D5:M5),D5:M5,0)))</f>
+        <v/>
+      </c>
+      <c r="Q5" s="293"/>
+      <c r="R5" s="294"/>
+      <c r="S5" s="295">
         <v>3000000</v>
       </c>
-      <c r="T5" s="320">
-        <f t="shared" ref="T5:T16" si="0">COUNTIF(D5:M5,"&lt;5")</f>
+      <c r="T5" s="288">
+        <f t="shared" ref="T5:T16" si="2">COUNTIF(D5:M5,"&lt;5")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A6" s="331">
+      <c r="A6" s="290">
         <v>3</v>
       </c>
-      <c r="B6" s="332" t="s">
+      <c r="B6" s="291" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="291" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="332">
+      <c r="D6" s="291">
         <v>5</v>
       </c>
-      <c r="E6" s="332">
+      <c r="E6" s="291">
         <v>8</v>
       </c>
-      <c r="F6" s="332">
+      <c r="F6" s="291">
         <v>6</v>
       </c>
-      <c r="G6" s="332">
+      <c r="G6" s="291">
         <v>7</v>
       </c>
-      <c r="H6" s="332">
+      <c r="H6" s="291">
         <v>6</v>
       </c>
-      <c r="I6" s="332">
+      <c r="I6" s="291">
         <v>6</v>
       </c>
-      <c r="J6" s="332">
+      <c r="J6" s="291">
         <v>9</v>
       </c>
-      <c r="K6" s="332">
+      <c r="K6" s="291">
         <v>2</v>
       </c>
-      <c r="L6" s="332">
+      <c r="L6" s="291">
         <v>6</v>
       </c>
-      <c r="M6" s="332">
+      <c r="M6" s="291">
         <v>3</v>
       </c>
-      <c r="N6" s="333"/>
-      <c r="O6" s="334"/>
-      <c r="P6" s="334"/>
-      <c r="Q6" s="334"/>
-      <c r="R6" s="335"/>
-      <c r="S6" s="336" t="s">
+      <c r="N6" s="292">
+        <f>AVERAGE(D6:M6,SUMIF($D$3:$M$3,C6,D6:M6))</f>
+        <v>5.8181818181818183</v>
+      </c>
+      <c r="O6" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏng</v>
+      </c>
+      <c r="P6" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q6" s="293"/>
+      <c r="R6" s="294"/>
+      <c r="S6" s="295" t="s">
         <v>282</v>
       </c>
-      <c r="T6" s="320">
+      <c r="T6" s="288">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A7" s="290">
+        <v>4</v>
+      </c>
+      <c r="B7" s="291" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="291" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="291">
+        <v>9</v>
+      </c>
+      <c r="E7" s="291">
+        <v>7</v>
+      </c>
+      <c r="F7" s="291">
+        <v>9</v>
+      </c>
+      <c r="G7" s="291">
+        <v>6</v>
+      </c>
+      <c r="H7" s="291">
+        <v>8</v>
+      </c>
+      <c r="I7" s="291">
+        <v>7</v>
+      </c>
+      <c r="J7" s="291">
+        <v>7</v>
+      </c>
+      <c r="K7" s="291">
+        <v>6</v>
+      </c>
+      <c r="L7" s="291">
+        <v>6</v>
+      </c>
+      <c r="M7" s="291">
+        <v>10</v>
+      </c>
+      <c r="N7" s="292">
+        <f t="shared" ref="N5:N16" si="3">AVERAGE(D7:M7,SUMIF($D$3:$M$3,C7,D7:M7))</f>
+        <v>7.3636363636363633</v>
+      </c>
+      <c r="O7" s="293" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A7" s="331">
+        <v>Đạt</v>
+      </c>
+      <c r="P7" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q7" s="293"/>
+      <c r="R7" s="294"/>
+      <c r="S7" s="295">
+        <v>1000000</v>
+      </c>
+      <c r="T7" s="288">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A8" s="290">
+        <v>5</v>
+      </c>
+      <c r="B8" s="291" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="291" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="291">
+        <v>8</v>
+      </c>
+      <c r="E8" s="291">
+        <v>9</v>
+      </c>
+      <c r="F8" s="291">
+        <v>6</v>
+      </c>
+      <c r="G8" s="291">
+        <v>9</v>
+      </c>
+      <c r="H8" s="291">
+        <v>3</v>
+      </c>
+      <c r="I8" s="291">
+        <v>8</v>
+      </c>
+      <c r="J8" s="291">
+        <v>8</v>
+      </c>
+      <c r="K8" s="291">
+        <v>6</v>
+      </c>
+      <c r="L8" s="291">
+        <v>7</v>
+      </c>
+      <c r="M8" s="291">
+        <v>8</v>
+      </c>
+      <c r="N8" s="292">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="O8" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏng</v>
+      </c>
+      <c r="P8" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q8" s="293"/>
+      <c r="R8" s="294"/>
+      <c r="S8" s="295" t="s">
+        <v>282</v>
+      </c>
+      <c r="T8" s="288">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A9" s="290">
+        <v>6</v>
+      </c>
+      <c r="B9" s="291" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="291" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="291">
         <v>4</v>
       </c>
-      <c r="B7" s="332" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="332" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="332">
+      <c r="E9" s="291">
+        <v>6</v>
+      </c>
+      <c r="F9" s="291">
+        <v>7</v>
+      </c>
+      <c r="G9" s="291">
+        <v>6</v>
+      </c>
+      <c r="H9" s="291">
+        <v>7</v>
+      </c>
+      <c r="I9" s="291">
+        <v>8</v>
+      </c>
+      <c r="J9" s="291">
         <v>9</v>
       </c>
-      <c r="E7" s="332">
+      <c r="K9" s="291">
+        <v>6</v>
+      </c>
+      <c r="L9" s="291">
         <v>7</v>
       </c>
-      <c r="F7" s="332">
+      <c r="M9" s="291">
         <v>9</v>
       </c>
-      <c r="G7" s="332">
+      <c r="N9" s="292">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Thi Lại</v>
+      </c>
+      <c r="P9" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v>Toán</v>
+      </c>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="294"/>
+      <c r="S9" s="295" t="s">
+        <v>282</v>
+      </c>
+      <c r="T9" s="288">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A10" s="290">
+        <v>7</v>
+      </c>
+      <c r="B10" s="291" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="291" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="291">
+        <v>7</v>
+      </c>
+      <c r="E10" s="291">
+        <v>5</v>
+      </c>
+      <c r="F10" s="291">
+        <v>8</v>
+      </c>
+      <c r="G10" s="291">
+        <v>5</v>
+      </c>
+      <c r="H10" s="291">
+        <v>5</v>
+      </c>
+      <c r="I10" s="291">
+        <v>7</v>
+      </c>
+      <c r="J10" s="291">
+        <v>8</v>
+      </c>
+      <c r="K10" s="291">
+        <v>9</v>
+      </c>
+      <c r="L10" s="291">
+        <v>5</v>
+      </c>
+      <c r="M10" s="291">
+        <v>4</v>
+      </c>
+      <c r="N10" s="292">
+        <f t="shared" si="3"/>
+        <v>6.4545454545454541</v>
+      </c>
+      <c r="O10" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Thi Lại</v>
+      </c>
+      <c r="P10" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v>Sinh</v>
+      </c>
+      <c r="Q10" s="293"/>
+      <c r="R10" s="294"/>
+      <c r="S10" s="295" t="s">
+        <v>282</v>
+      </c>
+      <c r="T10" s="288">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A11" s="290">
+        <v>8</v>
+      </c>
+      <c r="B11" s="291" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="291" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="291">
+        <v>9</v>
+      </c>
+      <c r="E11" s="291">
+        <v>10</v>
+      </c>
+      <c r="F11" s="291">
+        <v>9</v>
+      </c>
+      <c r="G11" s="291">
+        <v>10</v>
+      </c>
+      <c r="H11" s="291">
+        <v>9</v>
+      </c>
+      <c r="I11" s="291">
+        <v>7</v>
+      </c>
+      <c r="J11" s="291">
+        <v>10</v>
+      </c>
+      <c r="K11" s="291">
+        <v>10</v>
+      </c>
+      <c r="L11" s="291">
+        <v>9</v>
+      </c>
+      <c r="M11" s="291">
+        <v>9</v>
+      </c>
+      <c r="N11" s="292">
+        <f t="shared" si="3"/>
+        <v>9.2727272727272734</v>
+      </c>
+      <c r="O11" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Đạt</v>
+      </c>
+      <c r="P11" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="293"/>
+      <c r="R11" s="294"/>
+      <c r="S11" s="295">
+        <v>3000000</v>
+      </c>
+      <c r="T11" s="288">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A12" s="290">
+        <v>9</v>
+      </c>
+      <c r="B12" s="291" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="291" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="291">
+        <v>7</v>
+      </c>
+      <c r="E12" s="291">
+        <v>8</v>
+      </c>
+      <c r="F12" s="291">
+        <v>9</v>
+      </c>
+      <c r="G12" s="291">
+        <v>9</v>
+      </c>
+      <c r="H12" s="291">
+        <v>8</v>
+      </c>
+      <c r="I12" s="291">
+        <v>7</v>
+      </c>
+      <c r="J12" s="291">
+        <v>4</v>
+      </c>
+      <c r="K12" s="291">
+        <v>7</v>
+      </c>
+      <c r="L12" s="291">
+        <v>7</v>
+      </c>
+      <c r="M12" s="291">
+        <v>5</v>
+      </c>
+      <c r="N12" s="292">
+        <f t="shared" si="3"/>
+        <v>7.0909090909090908</v>
+      </c>
+      <c r="O12" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Thi Lại</v>
+      </c>
+      <c r="P12" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v>Anh</v>
+      </c>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="294"/>
+      <c r="S12" s="295" t="s">
+        <v>282</v>
+      </c>
+      <c r="T12" s="288">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A13" s="290">
+        <v>10</v>
+      </c>
+      <c r="B13" s="291" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="291" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="291">
+        <v>9</v>
+      </c>
+      <c r="E13" s="291">
+        <v>8</v>
+      </c>
+      <c r="F13" s="291">
+        <v>8</v>
+      </c>
+      <c r="G13" s="291">
+        <v>8</v>
+      </c>
+      <c r="H13" s="291">
+        <v>8</v>
+      </c>
+      <c r="I13" s="291">
         <v>6</v>
       </c>
-      <c r="H7" s="332">
+      <c r="J13" s="291">
+        <v>9</v>
+      </c>
+      <c r="K13" s="291">
+        <v>6</v>
+      </c>
+      <c r="L13" s="291">
         <v>8</v>
       </c>
-      <c r="I7" s="332">
+      <c r="M13" s="291">
+        <v>8</v>
+      </c>
+      <c r="N13" s="292">
+        <f t="shared" si="3"/>
+        <v>7.8181818181818183</v>
+      </c>
+      <c r="O13" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Đạt</v>
+      </c>
+      <c r="P13" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q13" s="293"/>
+      <c r="R13" s="294"/>
+      <c r="S13" s="295">
+        <v>1000000</v>
+      </c>
+      <c r="T13" s="288">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A14" s="290">
+        <v>11</v>
+      </c>
+      <c r="B14" s="291" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="291" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="291">
+        <v>6</v>
+      </c>
+      <c r="E14" s="291">
+        <v>5</v>
+      </c>
+      <c r="F14" s="291">
         <v>7</v>
       </c>
-      <c r="J7" s="332">
+      <c r="G14" s="291">
+        <v>5</v>
+      </c>
+      <c r="H14" s="291">
+        <v>6</v>
+      </c>
+      <c r="I14" s="291">
+        <v>6</v>
+      </c>
+      <c r="J14" s="291">
+        <v>8</v>
+      </c>
+      <c r="K14" s="291">
         <v>7</v>
       </c>
-      <c r="K7" s="332">
+      <c r="L14" s="291">
+        <v>8</v>
+      </c>
+      <c r="M14" s="291">
+        <v>5</v>
+      </c>
+      <c r="N14" s="292">
+        <f t="shared" si="3"/>
+        <v>6.1818181818181817</v>
+      </c>
+      <c r="O14" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Đạt</v>
+      </c>
+      <c r="P14" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q14" s="293"/>
+      <c r="R14" s="294"/>
+      <c r="S14" s="295" t="s">
+        <v>282</v>
+      </c>
+      <c r="T14" s="288">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A15" s="290">
+        <v>12</v>
+      </c>
+      <c r="B15" s="291" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="291" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="291">
+        <v>9</v>
+      </c>
+      <c r="E15" s="291">
         <v>6</v>
       </c>
-      <c r="L7" s="332">
+      <c r="F15" s="291">
+        <v>7</v>
+      </c>
+      <c r="G15" s="291">
+        <v>7</v>
+      </c>
+      <c r="H15" s="291">
+        <v>7</v>
+      </c>
+      <c r="I15" s="291">
+        <v>8</v>
+      </c>
+      <c r="J15" s="291">
+        <v>7</v>
+      </c>
+      <c r="K15" s="291">
+        <v>3</v>
+      </c>
+      <c r="L15" s="291">
         <v>6</v>
       </c>
-      <c r="M7" s="332">
-        <v>10</v>
-      </c>
-      <c r="N7" s="333"/>
-      <c r="O7" s="334"/>
-      <c r="P7" s="334"/>
-      <c r="Q7" s="334"/>
-      <c r="R7" s="335"/>
-      <c r="S7" s="336">
-        <v>1000000</v>
-      </c>
-      <c r="T7" s="320">
+      <c r="M15" s="291">
+        <v>5</v>
+      </c>
+      <c r="N15" s="292">
+        <f t="shared" si="3"/>
+        <v>6.5454545454545459</v>
+      </c>
+      <c r="O15" s="293" t="str">
         <f t="shared" si="0"/>
+        <v>Thi Lại</v>
+      </c>
+      <c r="P15" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v>Pháp</v>
+      </c>
+      <c r="Q15" s="293"/>
+      <c r="R15" s="294"/>
+      <c r="S15" s="295" t="s">
+        <v>282</v>
+      </c>
+      <c r="T15" s="288">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A16" s="296">
+        <v>13</v>
+      </c>
+      <c r="B16" s="297" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="297" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="297">
+        <v>8</v>
+      </c>
+      <c r="E16" s="297">
+        <v>6</v>
+      </c>
+      <c r="F16" s="297">
+        <v>7</v>
+      </c>
+      <c r="G16" s="297">
+        <v>5</v>
+      </c>
+      <c r="H16" s="297">
+        <v>6</v>
+      </c>
+      <c r="I16" s="297">
+        <v>7</v>
+      </c>
+      <c r="J16" s="297">
+        <v>7</v>
+      </c>
+      <c r="K16" s="297">
+        <v>6</v>
+      </c>
+      <c r="L16" s="297">
+        <v>5</v>
+      </c>
+      <c r="M16" s="297">
+        <v>9</v>
+      </c>
+      <c r="N16" s="292">
+        <f>AVERAGE(D16:M16,SUMIF($D$3:$M$3,C16,D16:M16))</f>
+        <v>6.5454545454545459</v>
+      </c>
+      <c r="O16" s="293" t="str">
+        <f t="shared" si="0"/>
+        <v>Đạt</v>
+      </c>
+      <c r="P16" s="293" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q16" s="298"/>
+      <c r="R16" s="299"/>
+      <c r="S16" s="295" t="s">
+        <v>282</v>
+      </c>
+      <c r="T16" s="288">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A8" s="331">
-        <v>5</v>
-      </c>
-      <c r="B8" s="332" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="332" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="332">
-        <v>8</v>
-      </c>
-      <c r="E8" s="332">
-        <v>9</v>
-      </c>
-      <c r="F8" s="332">
-        <v>6</v>
-      </c>
-      <c r="G8" s="332">
-        <v>9</v>
-      </c>
-      <c r="H8" s="332">
-        <v>3</v>
-      </c>
-      <c r="I8" s="332">
-        <v>8</v>
-      </c>
-      <c r="J8" s="332">
-        <v>8</v>
-      </c>
-      <c r="K8" s="332">
-        <v>6</v>
-      </c>
-      <c r="L8" s="332">
-        <v>7</v>
-      </c>
-      <c r="M8" s="332">
-        <v>8</v>
-      </c>
-      <c r="N8" s="333"/>
-      <c r="O8" s="334"/>
-      <c r="P8" s="334"/>
-      <c r="Q8" s="334"/>
-      <c r="R8" s="335"/>
-      <c r="S8" s="336" t="s">
-        <v>282</v>
-      </c>
-      <c r="T8" s="320">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A9" s="331">
-        <v>6</v>
-      </c>
-      <c r="B9" s="332" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="332" t="s">
-        <v>277</v>
-      </c>
-      <c r="D9" s="332">
-        <v>4</v>
-      </c>
-      <c r="E9" s="332">
-        <v>6</v>
-      </c>
-      <c r="F9" s="332">
-        <v>7</v>
-      </c>
-      <c r="G9" s="332">
-        <v>6</v>
-      </c>
-      <c r="H9" s="332">
-        <v>7</v>
-      </c>
-      <c r="I9" s="332">
-        <v>8</v>
-      </c>
-      <c r="J9" s="332">
-        <v>9</v>
-      </c>
-      <c r="K9" s="332">
-        <v>6</v>
-      </c>
-      <c r="L9" s="332">
-        <v>7</v>
-      </c>
-      <c r="M9" s="332">
-        <v>9</v>
-      </c>
-      <c r="N9" s="333"/>
-      <c r="O9" s="334"/>
-      <c r="P9" s="334"/>
-      <c r="Q9" s="334"/>
-      <c r="R9" s="335"/>
-      <c r="S9" s="336" t="s">
-        <v>282</v>
-      </c>
-      <c r="T9" s="320">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A10" s="331">
-        <v>7</v>
-      </c>
-      <c r="B10" s="332" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="332" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="332">
-        <v>7</v>
-      </c>
-      <c r="E10" s="332">
-        <v>5</v>
-      </c>
-      <c r="F10" s="332">
-        <v>8</v>
-      </c>
-      <c r="G10" s="332">
-        <v>5</v>
-      </c>
-      <c r="H10" s="332">
-        <v>5</v>
-      </c>
-      <c r="I10" s="332">
-        <v>7</v>
-      </c>
-      <c r="J10" s="332">
-        <v>8</v>
-      </c>
-      <c r="K10" s="332">
-        <v>9</v>
-      </c>
-      <c r="L10" s="332">
-        <v>5</v>
-      </c>
-      <c r="M10" s="332">
-        <v>4</v>
-      </c>
-      <c r="N10" s="333"/>
-      <c r="O10" s="334"/>
-      <c r="P10" s="334"/>
-      <c r="Q10" s="334"/>
-      <c r="R10" s="335"/>
-      <c r="S10" s="336" t="s">
-        <v>282</v>
-      </c>
-      <c r="T10" s="320">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A11" s="331">
-        <v>8</v>
-      </c>
-      <c r="B11" s="332" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="332" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="332">
-        <v>9</v>
-      </c>
-      <c r="E11" s="332">
-        <v>10</v>
-      </c>
-      <c r="F11" s="332">
-        <v>9</v>
-      </c>
-      <c r="G11" s="332">
-        <v>10</v>
-      </c>
-      <c r="H11" s="332">
-        <v>9</v>
-      </c>
-      <c r="I11" s="332">
-        <v>7</v>
-      </c>
-      <c r="J11" s="332">
-        <v>10</v>
-      </c>
-      <c r="K11" s="332">
-        <v>10</v>
-      </c>
-      <c r="L11" s="332">
-        <v>9</v>
-      </c>
-      <c r="M11" s="332">
-        <v>9</v>
-      </c>
-      <c r="N11" s="333"/>
-      <c r="O11" s="334"/>
-      <c r="P11" s="334"/>
-      <c r="Q11" s="334"/>
-      <c r="R11" s="335"/>
-      <c r="S11" s="336">
-        <v>3000000</v>
-      </c>
-      <c r="T11" s="320">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A12" s="331">
-        <v>9</v>
-      </c>
-      <c r="B12" s="332" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="332" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="332">
-        <v>7</v>
-      </c>
-      <c r="E12" s="332">
-        <v>8</v>
-      </c>
-      <c r="F12" s="332">
-        <v>9</v>
-      </c>
-      <c r="G12" s="332">
-        <v>9</v>
-      </c>
-      <c r="H12" s="332">
-        <v>8</v>
-      </c>
-      <c r="I12" s="332">
-        <v>7</v>
-      </c>
-      <c r="J12" s="332">
-        <v>4</v>
-      </c>
-      <c r="K12" s="332">
-        <v>7</v>
-      </c>
-      <c r="L12" s="332">
-        <v>7</v>
-      </c>
-      <c r="M12" s="332">
-        <v>5</v>
-      </c>
-      <c r="N12" s="333"/>
-      <c r="O12" s="334"/>
-      <c r="P12" s="334"/>
-      <c r="Q12" s="334"/>
-      <c r="R12" s="335"/>
-      <c r="S12" s="336" t="s">
-        <v>282</v>
-      </c>
-      <c r="T12" s="320">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A13" s="331">
-        <v>10</v>
-      </c>
-      <c r="B13" s="332" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="332" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="332">
-        <v>9</v>
-      </c>
-      <c r="E13" s="332">
-        <v>8</v>
-      </c>
-      <c r="F13" s="332">
-        <v>8</v>
-      </c>
-      <c r="G13" s="332">
-        <v>8</v>
-      </c>
-      <c r="H13" s="332">
-        <v>8</v>
-      </c>
-      <c r="I13" s="332">
-        <v>6</v>
-      </c>
-      <c r="J13" s="332">
-        <v>9</v>
-      </c>
-      <c r="K13" s="332">
-        <v>6</v>
-      </c>
-      <c r="L13" s="332">
-        <v>8</v>
-      </c>
-      <c r="M13" s="332">
-        <v>8</v>
-      </c>
-      <c r="N13" s="333"/>
-      <c r="O13" s="334"/>
-      <c r="P13" s="334"/>
-      <c r="Q13" s="334"/>
-      <c r="R13" s="335"/>
-      <c r="S13" s="336">
-        <v>1000000</v>
-      </c>
-      <c r="T13" s="320">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A14" s="331">
-        <v>11</v>
-      </c>
-      <c r="B14" s="332" t="s">
-        <v>291</v>
-      </c>
-      <c r="C14" s="332" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="332">
-        <v>6</v>
-      </c>
-      <c r="E14" s="332">
-        <v>5</v>
-      </c>
-      <c r="F14" s="332">
-        <v>7</v>
-      </c>
-      <c r="G14" s="332">
-        <v>5</v>
-      </c>
-      <c r="H14" s="332">
-        <v>6</v>
-      </c>
-      <c r="I14" s="332">
-        <v>6</v>
-      </c>
-      <c r="J14" s="332">
-        <v>8</v>
-      </c>
-      <c r="K14" s="332">
-        <v>7</v>
-      </c>
-      <c r="L14" s="332">
-        <v>8</v>
-      </c>
-      <c r="M14" s="332">
-        <v>5</v>
-      </c>
-      <c r="N14" s="333"/>
-      <c r="O14" s="334"/>
-      <c r="P14" s="334"/>
-      <c r="Q14" s="334"/>
-      <c r="R14" s="335"/>
-      <c r="S14" s="336" t="s">
-        <v>282</v>
-      </c>
-      <c r="T14" s="320">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A15" s="331">
-        <v>12</v>
-      </c>
-      <c r="B15" s="332" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="332" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="332">
-        <v>9</v>
-      </c>
-      <c r="E15" s="332">
-        <v>6</v>
-      </c>
-      <c r="F15" s="332">
-        <v>7</v>
-      </c>
-      <c r="G15" s="332">
-        <v>7</v>
-      </c>
-      <c r="H15" s="332">
-        <v>7</v>
-      </c>
-      <c r="I15" s="332">
-        <v>8</v>
-      </c>
-      <c r="J15" s="332">
-        <v>7</v>
-      </c>
-      <c r="K15" s="332">
-        <v>3</v>
-      </c>
-      <c r="L15" s="332">
-        <v>6</v>
-      </c>
-      <c r="M15" s="332">
-        <v>5</v>
-      </c>
-      <c r="N15" s="333"/>
-      <c r="O15" s="334"/>
-      <c r="P15" s="334"/>
-      <c r="Q15" s="334"/>
-      <c r="R15" s="335"/>
-      <c r="S15" s="336" t="s">
-        <v>282</v>
-      </c>
-      <c r="T15" s="320">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A16" s="337">
-        <v>13</v>
-      </c>
-      <c r="B16" s="338" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" s="338" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="338">
-        <v>8</v>
-      </c>
-      <c r="E16" s="338">
-        <v>6</v>
-      </c>
-      <c r="F16" s="338">
-        <v>7</v>
-      </c>
-      <c r="G16" s="338">
-        <v>5</v>
-      </c>
-      <c r="H16" s="338">
-        <v>6</v>
-      </c>
-      <c r="I16" s="338">
-        <v>7</v>
-      </c>
-      <c r="J16" s="338">
-        <v>7</v>
-      </c>
-      <c r="K16" s="338">
-        <v>6</v>
-      </c>
-      <c r="L16" s="338">
-        <v>5</v>
-      </c>
-      <c r="M16" s="338">
-        <v>9</v>
-      </c>
-      <c r="N16" s="339"/>
-      <c r="O16" s="340"/>
-      <c r="P16" s="340"/>
-      <c r="Q16" s="340"/>
-      <c r="R16" s="341"/>
-      <c r="S16" s="336" t="s">
-        <v>282</v>
-      </c>
-      <c r="T16" s="320">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="N17" s="342"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="320" t="s">
+    <row r="17" spans="1:21">
+      <c r="N17" s="300"/>
+      <c r="U17" s="288" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="288" t="s">
         <v>294</v>
       </c>
-      <c r="R18" s="320">
-        <f>COUNT(D4:M4)</f>
-        <v>10</v>
-      </c>
-      <c r="S18" s="320">
-        <f>MATCH(C4,$D$3:$M$3,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="320" t="s">
+      <c r="R18" s="288" t="s">
+        <v>316</v>
+      </c>
+      <c r="U18" s="292">
+        <f>(SUM(D4:M4)+INDEX($D$4:$M$16,MATCH(C4,$C$4:$C$16,0),MATCH(C4,$D$3:$M$3,0)))/(COUNT($D$4:$M$4)+1)</f>
+        <v>6.2727272727272725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="288" t="s">
         <v>295</v>
       </c>
-      <c r="S19" s="320">
-        <f t="shared" ref="S19:S28" si="1">MATCH(C5,$D$3:$M$3,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="320" t="s">
+      <c r="U19" s="292">
+        <f t="shared" ref="U19:U30" si="4">(SUM(D5:M5)+INDEX($D$4:$M$16,MATCH(C5,$C$4:$C$16,0),MATCH(C5,$D$3:$M$3,0)))/(COUNT($D$4:$M$4)+1)</f>
+        <v>9.454545454545455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="288" t="s">
         <v>296</v>
       </c>
-      <c r="S20" s="320">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="343" t="s">
+      <c r="U20" s="292">
+        <f t="shared" si="4"/>
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="301" t="s">
         <v>297</v>
       </c>
-      <c r="S21" s="320">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="343" t="s">
+      <c r="U21" s="292">
+        <f t="shared" si="4"/>
+        <v>7.3636363636363633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="301" t="s">
         <v>298</v>
       </c>
-      <c r="S22" s="320">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="343" t="s">
+      <c r="U22" s="292">
+        <f t="shared" si="4"/>
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="301" t="s">
         <v>299</v>
       </c>
-      <c r="S23" s="320">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="320" t="s">
+      <c r="U23" s="292">
+        <f t="shared" si="4"/>
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="288" t="s">
         <v>300</v>
       </c>
-      <c r="S24" s="320">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="344" t="s">
+      <c r="U24" s="292">
+        <f t="shared" si="4"/>
+        <v>6.4545454545454541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="302" t="s">
         <v>301</v>
       </c>
-      <c r="S25" s="320">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="344" t="s">
+      <c r="U25" s="292">
+        <f t="shared" si="4"/>
+        <v>9.2727272727272734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="302" t="s">
         <v>302</v>
       </c>
-      <c r="S26" s="320">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="320" t="s">
+      <c r="U26" s="292">
+        <f t="shared" si="4"/>
+        <v>7.0909090909090908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="288" t="s">
         <v>303</v>
       </c>
-      <c r="S27" s="320">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="343" t="s">
+      <c r="U27" s="292">
+        <f t="shared" si="4"/>
+        <v>7.8181818181818183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="301" t="s">
         <v>304</v>
       </c>
-      <c r="S28" s="320">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="343" t="s">
+      <c r="U28" s="292">
+        <f t="shared" si="4"/>
+        <v>6.6363636363636367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="301" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="343" t="s">
+      <c r="U29" s="292">
+        <f t="shared" si="4"/>
+        <v>6.6363636363636367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="301" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="344" t="s">
+      <c r="U30" s="292">
+        <f t="shared" si="4"/>
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="302" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="320" t="s">
+    <row r="32" spans="1:21">
+      <c r="A32" s="288" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="344" t="s">
+      <c r="A33" s="302" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="344" t="s">
+      <c r="A34" s="302" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="344" t="s">
+      <c r="A35" s="302" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="320" t="s">
+      <c r="A36" s="288" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="344" t="s">
+      <c r="A37" s="302" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="344" t="s">
+      <c r="A38" s="302" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="344" t="s">
+      <c r="A39" s="302" t="s">
         <v>315</v>
       </c>
     </row>
@@ -9319,6 +9432,7 @@
     <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10502,16 +10616,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="167" customWidth="1"/>
-    <col min="2" max="2" width="25" style="167" customWidth="1"/>
-    <col min="3" max="3" width="11" style="167" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="167" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="167" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="167" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="167" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="167" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="167" customWidth="1"/>
-    <col min="10" max="16384" width="10.28515625" style="167"/>
+    <col min="1" max="1" width="18.42578125" style="150" customWidth="1"/>
+    <col min="2" max="2" width="25" style="150" customWidth="1"/>
+    <col min="3" max="3" width="11" style="150" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="150" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="150" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="150" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="150" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="150" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="150" customWidth="1"/>
+    <col min="10" max="16384" width="10.28515625" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="55" customFormat="1" ht="26.25">
@@ -10532,264 +10646,264 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="169" t="s">
+      <c r="E3" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="154" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="172">
+      <c r="A4" s="155">
         <v>44044</v>
       </c>
-      <c r="B4" s="173">
+      <c r="B4" s="156">
         <v>300000</v>
       </c>
-      <c r="C4" s="174">
+      <c r="C4" s="157">
         <f>IF(A4&lt;DATE(2020,8,15),B4*20%,B4)</f>
         <v>60000</v>
       </c>
-      <c r="D4" s="174" t="str">
+      <c r="D4" s="157" t="str">
         <f>IF(A4&lt;DATE(2020,8,15),"Giam 20%","")</f>
         <v>Giam 20%</v>
       </c>
-      <c r="E4" s="174">
+      <c r="E4" s="157">
         <f>DAY(A4)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="175">
+      <c r="F4" s="158">
         <f>MONTH(A4)</f>
         <v>8</v>
       </c>
-      <c r="G4" s="175">
+      <c r="G4" s="158">
         <f>YEAR(A4)</f>
         <v>2020</v>
       </c>
-      <c r="H4" s="176">
+      <c r="H4" s="159">
         <f ca="1">TODAY()-A4</f>
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75">
-      <c r="A5" s="172">
+      <c r="A5" s="155">
         <v>44063</v>
       </c>
-      <c r="B5" s="173">
+      <c r="B5" s="156">
         <v>600000</v>
       </c>
-      <c r="C5" s="174">
+      <c r="C5" s="157">
         <f t="shared" ref="C5:C8" si="0">IF(A5&lt;DATE(2020,8,15),B5*20%,B5)</f>
         <v>600000</v>
       </c>
-      <c r="D5" s="174" t="str">
+      <c r="D5" s="157" t="str">
         <f t="shared" ref="D5:D8" si="1">IF(A5&lt;DATE(2020,8,15),"Giam 20%","")</f>
         <v/>
       </c>
-      <c r="E5" s="174">
+      <c r="E5" s="157">
         <f t="shared" ref="E5:E8" si="2">DAY(A5)</f>
         <v>20</v>
       </c>
-      <c r="F5" s="175">
+      <c r="F5" s="158">
         <f t="shared" ref="F5:F8" si="3">MONTH(A5)</f>
         <v>8</v>
       </c>
-      <c r="G5" s="175">
+      <c r="G5" s="158">
         <f t="shared" ref="G5:G8" si="4">YEAR(A5)</f>
         <v>2020</v>
       </c>
-      <c r="H5" s="176">
+      <c r="H5" s="159">
         <f t="shared" ref="H5:H8" ca="1" si="5">TODAY()-A5</f>
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="172">
+      <c r="A6" s="155">
         <v>44046</v>
       </c>
-      <c r="B6" s="173">
+      <c r="B6" s="156">
         <v>800000</v>
       </c>
-      <c r="C6" s="174">
+      <c r="C6" s="157">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="D6" s="174" t="str">
+      <c r="D6" s="157" t="str">
         <f t="shared" si="1"/>
         <v>Giam 20%</v>
       </c>
-      <c r="E6" s="174">
+      <c r="E6" s="157">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F6" s="175">
+      <c r="F6" s="158">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G6" s="175">
+      <c r="G6" s="158">
         <f t="shared" si="4"/>
         <v>2020</v>
       </c>
-      <c r="H6" s="176">
+      <c r="H6" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="172">
+      <c r="A7" s="155">
         <v>44058</v>
       </c>
-      <c r="B7" s="173">
+      <c r="B7" s="156">
         <v>500000</v>
       </c>
-      <c r="C7" s="174">
+      <c r="C7" s="157">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="D7" s="174" t="str">
+      <c r="D7" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="174">
+      <c r="E7" s="157">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="F7" s="175">
+      <c r="F7" s="158">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G7" s="175">
+      <c r="G7" s="158">
         <f t="shared" si="4"/>
         <v>2020</v>
       </c>
-      <c r="H7" s="176">
+      <c r="H7" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A8" s="177">
+      <c r="A8" s="160">
         <v>44060</v>
       </c>
-      <c r="B8" s="178">
+      <c r="B8" s="161">
         <v>4000000</v>
       </c>
-      <c r="C8" s="184">
+      <c r="C8" s="167">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="D8" s="184" t="str">
+      <c r="D8" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E8" s="184">
+      <c r="E8" s="167">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F8" s="185">
+      <c r="F8" s="168">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G8" s="185">
+      <c r="G8" s="168">
         <f t="shared" si="4"/>
         <v>2020</v>
       </c>
-      <c r="H8" s="186">
+      <c r="H8" s="169">
         <f t="shared" ca="1" si="5"/>
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
     </row>
     <row r="10" spans="1:12" ht="15.75">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
     </row>
     <row r="11" spans="1:12" ht="15.75">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
     </row>
     <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="165" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="164" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="164" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="181" t="s">
+      <c r="A18" s="164" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10847,19 +10961,19 @@
       <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="189" t="s">
+      <c r="E3" s="172" t="s">
         <v>159</v>
       </c>
       <c r="F3" s="58"/>
@@ -10870,19 +10984,19 @@
       <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="190">
+      <c r="A4" s="173">
         <v>1</v>
       </c>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="191" t="s">
+      <c r="D4" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="193"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -10891,19 +11005,19 @@
       <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="190">
+      <c r="A5" s="173">
         <v>2</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="191" t="s">
+      <c r="D5" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="194"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
@@ -10912,19 +11026,19 @@
       <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="190">
+      <c r="A6" s="173">
         <v>3</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="194"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
@@ -10933,19 +11047,19 @@
       <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" hidden="1">
-      <c r="A7" s="190">
+      <c r="A7" s="173">
         <v>4</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="174" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="194"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
@@ -10954,19 +11068,19 @@
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="190">
+      <c r="A8" s="173">
         <v>5</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="191" t="s">
+      <c r="D8" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="194"/>
+      <c r="E8" s="177"/>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
@@ -10975,21 +11089,21 @@
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" hidden="1">
-      <c r="A9" s="190">
+      <c r="A9" s="173">
         <v>6</v>
       </c>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="194"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="58"/>
-      <c r="G9" s="195" t="s">
+      <c r="G9" s="178" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="58"/>
@@ -10998,21 +11112,21 @@
       <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="190">
+      <c r="A10" s="173">
         <v>7</v>
       </c>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="191" t="s">
+      <c r="D10" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="194"/>
+      <c r="E10" s="177"/>
       <c r="F10" s="58"/>
-      <c r="G10" s="196" t="s">
+      <c r="G10" s="179" t="s">
         <v>179</v>
       </c>
       <c r="H10" s="58"/>
@@ -11021,21 +11135,21 @@
       <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" hidden="1">
-      <c r="A11" s="190">
+      <c r="A11" s="173">
         <v>8</v>
       </c>
-      <c r="B11" s="191" t="s">
+      <c r="B11" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="191" t="s">
+      <c r="D11" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="194"/>
+      <c r="E11" s="177"/>
       <c r="F11" s="58"/>
-      <c r="G11" s="196" t="s">
+      <c r="G11" s="179" t="s">
         <v>182</v>
       </c>
       <c r="H11" s="58"/>
@@ -11044,19 +11158,19 @@
       <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="190">
+      <c r="A12" s="173">
         <v>9</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="191" t="s">
+      <c r="D12" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="194"/>
+      <c r="E12" s="177"/>
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
@@ -11065,19 +11179,19 @@
       <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" s="197">
+      <c r="A13" s="180">
         <v>10</v>
       </c>
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="199" t="s">
+      <c r="C13" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="198" t="s">
+      <c r="D13" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="200"/>
+      <c r="E13" s="183"/>
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
@@ -11087,166 +11201,166 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="G16" s="188" t="s">
+      <c r="G16" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="188" t="s">
+      <c r="I16" s="171" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G17" s="191" t="s">
+      <c r="G17" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="191" t="s">
+      <c r="H17" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="191" t="s">
+      <c r="I17" s="174" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="188" t="s">
+      <c r="C18" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="188" t="s">
+      <c r="D18" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="189" t="s">
+      <c r="E18" s="172" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="190">
+      <c r="A19" s="173">
         <v>1</v>
       </c>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="192" t="s">
+      <c r="C19" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="191" t="s">
+      <c r="D19" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="193"/>
+      <c r="E19" s="176"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="190">
+      <c r="A20" s="173">
         <v>2</v>
       </c>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="191" t="s">
+      <c r="D20" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="194"/>
+      <c r="E20" s="177"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="190">
+      <c r="A21" s="173">
         <v>5</v>
       </c>
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="191" t="s">
+      <c r="D21" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="194"/>
+      <c r="E21" s="177"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="190">
+      <c r="A22" s="173">
         <v>8</v>
       </c>
-      <c r="B22" s="191" t="s">
+      <c r="B22" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="191" t="s">
+      <c r="D22" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="194"/>
+      <c r="E22" s="177"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A23" s="197">
+      <c r="A23" s="180">
         <v>10</v>
       </c>
-      <c r="B23" s="198" t="s">
+      <c r="B23" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="199" t="s">
+      <c r="C23" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="198" t="s">
+      <c r="D23" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="200"/>
+      <c r="E23" s="183"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:12" ht="15.75">
-      <c r="H28" s="187" t="s">
+      <c r="H28" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="I28" s="188" t="s">
+      <c r="I28" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="188" t="s">
+      <c r="J28" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="188" t="s">
+      <c r="K28" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="L28" s="189" t="s">
+      <c r="L28" s="172" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75">
-      <c r="H29" s="190">
+      <c r="H29" s="173">
         <v>1</v>
       </c>
-      <c r="I29" s="191" t="s">
+      <c r="I29" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="J29" s="192" t="s">
+      <c r="J29" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="K29" s="191" t="s">
+      <c r="K29" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="L29" s="193"/>
+      <c r="L29" s="176"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="H30" s="190">
+      <c r="H30" s="173">
         <v>5</v>
       </c>
-      <c r="I30" s="191" t="s">
+      <c r="I30" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="J30" s="192" t="s">
+      <c r="J30" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="191" t="s">
+      <c r="K30" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="L30" s="194"/>
+      <c r="L30" s="177"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E13">
@@ -11325,19 +11439,19 @@
     </row>
     <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="58"/>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="188" t="s">
+      <c r="E4" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="189" t="s">
+      <c r="F4" s="172" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="58"/>
@@ -11348,19 +11462,19 @@
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="58"/>
-      <c r="B5" s="190">
+      <c r="B5" s="173">
         <v>1</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="191" t="s">
+      <c r="E5" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="193"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
@@ -11369,19 +11483,19 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="58"/>
-      <c r="B6" s="190">
+      <c r="B6" s="173">
         <v>2</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="192" t="s">
+      <c r="D6" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="191" t="s">
+      <c r="E6" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="194"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58"/>
@@ -11390,19 +11504,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="58"/>
-      <c r="B7" s="190">
+      <c r="B7" s="173">
         <v>3</v>
       </c>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="192" t="s">
+      <c r="D7" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="191" t="s">
+      <c r="E7" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="194"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
       <c r="I7" s="58"/>
@@ -11411,19 +11525,19 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="58"/>
-      <c r="B8" s="190">
+      <c r="B8" s="173">
         <v>4</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="192" t="s">
+      <c r="D8" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="174" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="194"/>
+      <c r="F8" s="177"/>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
@@ -11432,19 +11546,19 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="58"/>
-      <c r="B9" s="190">
+      <c r="B9" s="173">
         <v>5</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="194"/>
+      <c r="F9" s="177"/>
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
       <c r="I9" s="58"/>
@@ -11453,19 +11567,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="58"/>
-      <c r="B10" s="190">
+      <c r="B10" s="173">
         <v>6</v>
       </c>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="192" t="s">
+      <c r="D10" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="191" t="s">
+      <c r="E10" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="194"/>
+      <c r="F10" s="177"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
       <c r="I10" s="58"/>
@@ -11474,19 +11588,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="58"/>
-      <c r="B11" s="190">
+      <c r="B11" s="173">
         <v>7</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="192" t="s">
+      <c r="D11" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="191" t="s">
+      <c r="E11" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="194"/>
+      <c r="F11" s="177"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
       <c r="I11" s="58"/>
@@ -11495,19 +11609,19 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="58"/>
-      <c r="B12" s="190">
+      <c r="B12" s="173">
         <v>8</v>
       </c>
-      <c r="C12" s="191" t="s">
+      <c r="C12" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="192" t="s">
+      <c r="D12" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="191" t="s">
+      <c r="E12" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="194"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
       <c r="I12" s="58"/>
@@ -11516,19 +11630,19 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="58"/>
-      <c r="B13" s="190">
+      <c r="B13" s="173">
         <v>9</v>
       </c>
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="191" t="s">
+      <c r="E13" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="194"/>
+      <c r="F13" s="177"/>
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -11537,19 +11651,19 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="197">
+      <c r="B14" s="180">
         <v>10</v>
       </c>
-      <c r="C14" s="198" t="s">
+      <c r="C14" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="198" t="s">
+      <c r="E14" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="200"/>
+      <c r="F14" s="183"/>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
@@ -11558,283 +11672,283 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="58"/>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
       <c r="G15" s="58"/>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
       <c r="J15" s="58"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="1:11" s="204" customFormat="1" ht="15.75">
-      <c r="A16" s="167"/>
-      <c r="B16" s="202" t="s">
+    <row r="16" spans="1:11" s="187" customFormat="1" ht="15.75">
+      <c r="A16" s="150"/>
+      <c r="B16" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-    </row>
-    <row r="17" spans="1:11" s="204" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A17" s="167"/>
-      <c r="B17" s="196" t="s">
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+    </row>
+    <row r="17" spans="1:11" s="187" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A17" s="150"/>
+      <c r="B17" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-    </row>
-    <row r="18" spans="1:11" s="204" customFormat="1" ht="15.75">
-      <c r="A18" s="167"/>
-      <c r="B18" s="187" t="s">
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+    </row>
+    <row r="18" spans="1:11" s="187" customFormat="1" ht="15.75">
+      <c r="A18" s="150"/>
+      <c r="B18" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="188" t="s">
+      <c r="C18" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="188" t="s">
+      <c r="D18" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="188" t="s">
+      <c r="E18" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="189" t="s">
+      <c r="F18" s="172" t="s">
         <v>159</v>
       </c>
-      <c r="G18" s="167"/>
-      <c r="H18" s="188" t="s">
+      <c r="G18" s="150"/>
+      <c r="H18" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-    </row>
-    <row r="19" spans="1:11" s="204" customFormat="1" ht="15.75">
-      <c r="A19" s="167"/>
-      <c r="B19" s="190">
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+    </row>
+    <row r="19" spans="1:11" s="187" customFormat="1" ht="15.75">
+      <c r="A19" s="150"/>
+      <c r="B19" s="173">
         <v>1</v>
       </c>
-      <c r="C19" s="191" t="s">
+      <c r="C19" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="191" t="s">
+      <c r="E19" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="193"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="191" t="s">
+      <c r="F19" s="176"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-    </row>
-    <row r="20" spans="1:11" s="204" customFormat="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="190">
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+    </row>
+    <row r="20" spans="1:11" s="187" customFormat="1">
+      <c r="A20" s="150"/>
+      <c r="B20" s="173">
         <v>2</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="192" t="s">
+      <c r="D20" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="191" t="s">
+      <c r="E20" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="194"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-    </row>
-    <row r="21" spans="1:11" s="204" customFormat="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="190">
+      <c r="F20" s="177"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+    </row>
+    <row r="21" spans="1:11" s="187" customFormat="1">
+      <c r="A21" s="150"/>
+      <c r="B21" s="173">
         <v>3</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="192" t="s">
+      <c r="D21" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="191" t="s">
+      <c r="E21" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="194"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
-    </row>
-    <row r="22" spans="1:11" s="204" customFormat="1">
-      <c r="A22" s="167"/>
-      <c r="B22" s="190">
+      <c r="F21" s="177"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+    </row>
+    <row r="22" spans="1:11" s="187" customFormat="1">
+      <c r="A22" s="150"/>
+      <c r="B22" s="173">
         <v>4</v>
       </c>
-      <c r="C22" s="191" t="s">
+      <c r="C22" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="191" t="s">
+      <c r="E22" s="174" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="194"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-    </row>
-    <row r="23" spans="1:11" s="204" customFormat="1">
-      <c r="A23" s="167"/>
-      <c r="B23" s="190">
+      <c r="F22" s="177"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+    </row>
+    <row r="23" spans="1:11" s="187" customFormat="1">
+      <c r="A23" s="150"/>
+      <c r="B23" s="173">
         <v>5</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="191" t="s">
+      <c r="E23" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="194"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167"/>
-    </row>
-    <row r="24" spans="1:11" s="204" customFormat="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="190">
+      <c r="F23" s="177"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+    </row>
+    <row r="24" spans="1:11" s="187" customFormat="1">
+      <c r="A24" s="150"/>
+      <c r="B24" s="173">
         <v>6</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="192" t="s">
+      <c r="D24" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="191" t="s">
+      <c r="E24" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="194"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="167"/>
-    </row>
-    <row r="25" spans="1:11" s="204" customFormat="1">
-      <c r="A25" s="167"/>
-      <c r="B25" s="190">
+      <c r="F24" s="177"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="150"/>
+    </row>
+    <row r="25" spans="1:11" s="187" customFormat="1">
+      <c r="A25" s="150"/>
+      <c r="B25" s="173">
         <v>7</v>
       </c>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="192" t="s">
+      <c r="D25" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="191" t="s">
+      <c r="E25" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="167"/>
-    </row>
-    <row r="26" spans="1:11" s="204" customFormat="1" ht="15.75">
-      <c r="A26" s="167"/>
-      <c r="B26" s="190">
+      <c r="F25" s="177"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="150"/>
+    </row>
+    <row r="26" spans="1:11" s="187" customFormat="1" ht="15.75">
+      <c r="A26" s="150"/>
+      <c r="B26" s="173">
         <v>8</v>
       </c>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="192" t="s">
+      <c r="D26" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="191" t="s">
+      <c r="E26" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="167"/>
-    </row>
-    <row r="27" spans="1:11" s="204" customFormat="1">
-      <c r="A27" s="167"/>
-      <c r="B27" s="190">
+      <c r="F26" s="177"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="150"/>
+    </row>
+    <row r="27" spans="1:11" s="187" customFormat="1">
+      <c r="A27" s="150"/>
+      <c r="B27" s="173">
         <v>9</v>
       </c>
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="192" t="s">
+      <c r="D27" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="E27" s="191" t="s">
+      <c r="E27" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="194"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="167"/>
-    </row>
-    <row r="28" spans="1:11" s="204" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A28" s="167"/>
-      <c r="B28" s="197">
+      <c r="F27" s="177"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="150"/>
+    </row>
+    <row r="28" spans="1:11" s="187" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A28" s="150"/>
+      <c r="B28" s="180">
         <v>10</v>
       </c>
-      <c r="C28" s="198" t="s">
+      <c r="C28" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="199" t="s">
+      <c r="D28" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="198" t="s">
+      <c r="E28" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="200"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="167"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="150"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="58"/>
@@ -11844,14 +11958,14 @@
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="217"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="200"/>
       <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickBot="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="196" t="s">
+      <c r="B30" s="179" t="s">
         <v>190</v>
       </c>
       <c r="C30" s="58"/>
@@ -11859,95 +11973,95 @@
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="188" t="s">
+      <c r="H30" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="206"/>
+      <c r="I30" s="189"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="58"/>
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="188" t="s">
+      <c r="C31" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="188" t="s">
+      <c r="E31" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="189" t="s">
+      <c r="F31" s="172" t="s">
         <v>159</v>
       </c>
       <c r="G31" s="58"/>
-      <c r="H31" s="191" t="s">
+      <c r="H31" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="I31" s="206"/>
+      <c r="I31" s="189"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="58"/>
-      <c r="B32" s="190">
+      <c r="B32" s="173">
         <v>1</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="192" t="s">
+      <c r="D32" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="191" t="s">
+      <c r="E32" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="193"/>
+      <c r="F32" s="176"/>
       <c r="G32" s="58"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="206"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="58"/>
-      <c r="B33" s="190">
+      <c r="B33" s="173">
         <v>5</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="192" t="s">
+      <c r="D33" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="191" t="s">
+      <c r="E33" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="194"/>
+      <c r="F33" s="177"/>
       <c r="G33" s="58"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="58"/>
-      <c r="B34" s="190">
+      <c r="B34" s="173">
         <v>7</v>
       </c>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="192" t="s">
+      <c r="D34" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="191" t="s">
+      <c r="E34" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="194"/>
+      <c r="F34" s="177"/>
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
       <c r="I34" s="58"/>
@@ -11969,7 +12083,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1">
       <c r="A36" s="58"/>
-      <c r="B36" s="196" t="s">
+      <c r="B36" s="179" t="s">
         <v>191</v>
       </c>
       <c r="C36" s="58"/>
@@ -11977,55 +12091,55 @@
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
       <c r="G36" s="58"/>
-      <c r="H36" s="188" t="s">
+      <c r="H36" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="188" t="s">
+      <c r="I36" s="171" t="s">
         <v>158</v>
       </c>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="206"/>
-      <c r="B37" s="187" t="s">
+      <c r="A37" s="189"/>
+      <c r="B37" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="188" t="s">
+      <c r="C37" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="188" t="s">
+      <c r="D37" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="188" t="s">
+      <c r="E37" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="189" t="s">
+      <c r="F37" s="172" t="s">
         <v>159</v>
       </c>
       <c r="G37" s="58"/>
-      <c r="H37" s="191" t="s">
+      <c r="H37" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="I37" s="191"/>
+      <c r="I37" s="174"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="58"/>
-      <c r="B38" s="190">
+      <c r="B38" s="173">
         <v>1</v>
       </c>
-      <c r="C38" s="191" t="s">
+      <c r="C38" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="192" t="s">
+      <c r="D38" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="191" t="s">
+      <c r="E38" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="193"/>
+      <c r="F38" s="176"/>
       <c r="G38" s="58"/>
       <c r="H38" s="58"/>
       <c r="I38" s="58" t="s">
@@ -12036,19 +12150,19 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="58"/>
-      <c r="B39" s="190">
+      <c r="B39" s="173">
         <v>2</v>
       </c>
-      <c r="C39" s="191" t="s">
+      <c r="C39" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="192" t="s">
+      <c r="D39" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="194"/>
+      <c r="F39" s="177"/>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
       <c r="I39" s="58"/>
@@ -12056,323 +12170,323 @@
       <c r="K39" s="58"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="206"/>
-      <c r="B40" s="190">
+      <c r="A40" s="189"/>
+      <c r="B40" s="173">
         <v>5</v>
       </c>
-      <c r="C40" s="191" t="s">
+      <c r="C40" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="192" t="s">
+      <c r="D40" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="191" t="s">
+      <c r="E40" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="194"/>
-      <c r="G40" s="206"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="189"/>
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
       <c r="J40" s="58"/>
       <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="210"/>
-      <c r="B41" s="190">
+      <c r="A41" s="193"/>
+      <c r="B41" s="173">
         <v>8</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="192" t="s">
+      <c r="D41" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="191" t="s">
+      <c r="E41" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="194"/>
-      <c r="G41" s="210"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A42" s="210"/>
-      <c r="B42" s="197">
+      <c r="A42" s="193"/>
+      <c r="B42" s="180">
         <v>10</v>
       </c>
-      <c r="C42" s="198" t="s">
+      <c r="C42" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="199" t="s">
+      <c r="D42" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="198" t="s">
+      <c r="E42" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="200"/>
-      <c r="G42" s="210"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="193"/>
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="210"/>
-      <c r="B43" s="212"/>
-      <c r="C43" s="212"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="210"/>
+      <c r="A43" s="193"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="193"/>
       <c r="H43" s="58"/>
       <c r="I43" s="58"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="210"/>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="210"/>
+      <c r="A44" s="193"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="193"/>
       <c r="H44" s="58"/>
       <c r="I44" s="58"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="210"/>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="210"/>
+      <c r="A45" s="193"/>
+      <c r="B45" s="195"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="193"/>
       <c r="H45" s="58"/>
       <c r="I45" s="58"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="210"/>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="210"/>
+      <c r="A46" s="193"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="193"/>
       <c r="H46" s="58"/>
       <c r="I46" s="58"/>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="210"/>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="213"/>
-      <c r="G47" s="210"/>
+      <c r="A47" s="193"/>
+      <c r="B47" s="195"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="193"/>
       <c r="H47" s="58"/>
       <c r="I47" s="58"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="210"/>
-      <c r="B48" s="212"/>
-      <c r="C48" s="212"/>
-      <c r="D48" s="213"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="213"/>
-      <c r="G48" s="210"/>
+      <c r="A48" s="193"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="193"/>
       <c r="H48" s="58"/>
       <c r="I48" s="58"/>
       <c r="J48" s="58"/>
       <c r="K48" s="58"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="210"/>
-      <c r="B49" s="212"/>
-      <c r="C49" s="212"/>
-      <c r="D49" s="213"/>
-      <c r="E49" s="212"/>
-      <c r="F49" s="213"/>
-      <c r="G49" s="210"/>
+      <c r="A49" s="193"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="193"/>
       <c r="H49" s="58"/>
       <c r="I49" s="58"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="210"/>
-      <c r="B50" s="212"/>
-      <c r="C50" s="212"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="213"/>
-      <c r="G50" s="210"/>
+      <c r="A50" s="193"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="193"/>
       <c r="H50" s="58"/>
       <c r="I50" s="58"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="210"/>
-      <c r="B51" s="212"/>
-      <c r="C51" s="212"/>
-      <c r="D51" s="213"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="210"/>
+      <c r="A51" s="193"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="193"/>
       <c r="H51" s="58"/>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="210"/>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="210"/>
+      <c r="A52" s="193"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="193"/>
       <c r="H52" s="58"/>
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
       <c r="K52" s="58"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="210"/>
-      <c r="B53" s="210"/>
-      <c r="C53" s="210"/>
-      <c r="D53" s="210"/>
-      <c r="E53" s="210"/>
-      <c r="F53" s="210"/>
-      <c r="G53" s="210"/>
+      <c r="A53" s="193"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="193"/>
+      <c r="D53" s="193"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="193"/>
+      <c r="G53" s="193"/>
       <c r="H53" s="58"/>
       <c r="I53" s="58"/>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="210"/>
-      <c r="B54" s="210"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="210"/>
-      <c r="E54" s="210"/>
-      <c r="F54" s="210"/>
-      <c r="G54" s="210"/>
+      <c r="A54" s="193"/>
+      <c r="B54" s="193"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="193"/>
       <c r="H54" s="58"/>
       <c r="I54" s="58"/>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="210"/>
-      <c r="B55" s="210"/>
-      <c r="C55" s="210"/>
-      <c r="D55" s="210"/>
-      <c r="E55" s="210"/>
-      <c r="F55" s="210"/>
-      <c r="G55" s="210"/>
+      <c r="A55" s="193"/>
+      <c r="B55" s="193"/>
+      <c r="C55" s="193"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="193"/>
+      <c r="F55" s="193"/>
+      <c r="G55" s="193"/>
       <c r="H55" s="58"/>
       <c r="I55" s="58"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="210"/>
-      <c r="B56" s="211"/>
-      <c r="C56" s="211"/>
-      <c r="D56" s="211"/>
-      <c r="E56" s="211"/>
-      <c r="F56" s="211"/>
-      <c r="G56" s="210"/>
+      <c r="A56" s="193"/>
+      <c r="B56" s="194"/>
+      <c r="C56" s="194"/>
+      <c r="D56" s="194"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="193"/>
       <c r="H56" s="58"/>
       <c r="I56" s="58"/>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="210"/>
-      <c r="B57" s="212"/>
-      <c r="C57" s="212"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="212"/>
-      <c r="F57" s="211"/>
-      <c r="G57" s="210"/>
+      <c r="A57" s="193"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="194"/>
+      <c r="G57" s="193"/>
       <c r="H57" s="58"/>
       <c r="I57" s="58"/>
       <c r="J57" s="58"/>
       <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="210"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="212"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="212"/>
-      <c r="F58" s="213"/>
-      <c r="G58" s="210"/>
+      <c r="A58" s="193"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="196"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="196"/>
+      <c r="G58" s="193"/>
       <c r="H58" s="58"/>
       <c r="I58" s="58"/>
       <c r="J58" s="58"/>
       <c r="K58" s="58"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="210"/>
-      <c r="B59" s="212"/>
-      <c r="C59" s="212"/>
-      <c r="D59" s="213"/>
-      <c r="E59" s="212"/>
-      <c r="F59" s="213"/>
-      <c r="G59" s="210"/>
+      <c r="A59" s="193"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="196"/>
+      <c r="G59" s="193"/>
       <c r="H59" s="58"/>
       <c r="I59" s="58"/>
       <c r="J59" s="58"/>
       <c r="K59" s="58"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="206"/>
-      <c r="B60" s="207"/>
-      <c r="C60" s="207"/>
-      <c r="D60" s="208"/>
-      <c r="E60" s="207"/>
-      <c r="F60" s="208"/>
-      <c r="G60" s="206"/>
+      <c r="A60" s="189"/>
+      <c r="B60" s="190"/>
+      <c r="C60" s="190"/>
+      <c r="D60" s="191"/>
+      <c r="E60" s="190"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="189"/>
       <c r="H60" s="58"/>
       <c r="I60" s="58"/>
       <c r="J60" s="58"/>
       <c r="K60" s="58"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="206"/>
-      <c r="B61" s="207"/>
-      <c r="C61" s="207"/>
-      <c r="D61" s="208"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="206"/>
+      <c r="A61" s="189"/>
+      <c r="B61" s="190"/>
+      <c r="C61" s="190"/>
+      <c r="D61" s="191"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="189"/>
       <c r="H61" s="58"/>
       <c r="I61" s="58"/>
       <c r="J61" s="58"/>
       <c r="K61" s="58"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="209"/>
-      <c r="B62" s="209"/>
-      <c r="C62" s="209"/>
-      <c r="D62" s="209"/>
-      <c r="E62" s="209"/>
-      <c r="F62" s="209"/>
-      <c r="G62" s="209"/>
+      <c r="A62" s="192"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="192"/>
+      <c r="D62" s="192"/>
+      <c r="E62" s="192"/>
+      <c r="F62" s="192"/>
+      <c r="G62" s="192"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12396,18 +12510,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="56" customFormat="1" ht="26.25">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
       <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
@@ -12424,479 +12538,479 @@
       <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="203" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="204" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="204" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="204" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="222" t="s">
+      <c r="E3" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224" t="s">
+      <c r="G3" s="206"/>
+      <c r="H3" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
       <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="209" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="226" t="str">
+      <c r="C4" s="209" t="str">
         <f>LEFT(B4,1)</f>
         <v>A</v>
       </c>
-      <c r="D4" s="226">
+      <c r="D4" s="209">
         <f>VALUE(RIGHT(B4))</f>
         <v>4</v>
       </c>
-      <c r="E4" s="227">
+      <c r="E4" s="210">
         <f>INDEX($H$5:$K$9,MATCH(C4,$H$5:$H$9),MATCH(D4,$H$5:$K$5))</f>
         <v>12</v>
       </c>
-      <c r="F4" s="228">
+      <c r="F4" s="211">
         <v>12</v>
       </c>
-      <c r="G4" s="223"/>
-      <c r="H4" s="229" t="s">
+      <c r="G4" s="206"/>
+      <c r="H4" s="212" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="213" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="230"/>
-      <c r="K4" s="227"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="210"/>
       <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="215" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="226" t="str">
+      <c r="C5" s="209" t="str">
         <f t="shared" ref="C5:C12" si="0">LEFT(B5,1)</f>
         <v>C</v>
       </c>
-      <c r="D5" s="226">
+      <c r="D5" s="209">
         <f t="shared" ref="D5:D12" si="1">VALUE(RIGHT(B5))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="227">
+      <c r="E5" s="210">
         <f t="shared" ref="E5:E12" si="2">INDEX($H$5:$K$9,MATCH(C5,$H$5:$H$9),MATCH(D5,$H$5:$K$5))</f>
         <v>9</v>
       </c>
-      <c r="F5" s="233">
+      <c r="F5" s="216">
         <v>9</v>
       </c>
-      <c r="G5" s="223"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="235">
+      <c r="G5" s="206"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="218">
         <v>1</v>
       </c>
-      <c r="J5" s="235">
+      <c r="J5" s="218">
         <v>3</v>
       </c>
-      <c r="K5" s="236">
+      <c r="K5" s="219">
         <v>6</v>
       </c>
       <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="214" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="232" t="s">
+      <c r="B6" s="215" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="226" t="str">
+      <c r="C6" s="209" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="D6" s="226">
+      <c r="D6" s="209">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E6" s="227">
+      <c r="E6" s="210">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="233">
+      <c r="F6" s="216">
         <v>8</v>
       </c>
-      <c r="G6" s="223"/>
-      <c r="H6" s="237" t="s">
+      <c r="G6" s="206"/>
+      <c r="H6" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="238">
+      <c r="I6" s="221">
         <v>10</v>
       </c>
-      <c r="J6" s="238">
+      <c r="J6" s="221">
         <v>12</v>
       </c>
-      <c r="K6" s="239">
+      <c r="K6" s="222">
         <v>15</v>
       </c>
       <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="226" t="str">
+      <c r="C7" s="209" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="D7" s="226">
+      <c r="D7" s="209">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E7" s="227">
+      <c r="E7" s="210">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F7" s="233">
+      <c r="F7" s="216">
         <v>11</v>
       </c>
-      <c r="G7" s="223"/>
-      <c r="H7" s="240" t="s">
+      <c r="G7" s="206"/>
+      <c r="H7" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="241">
+      <c r="I7" s="224">
         <v>9</v>
       </c>
-      <c r="J7" s="241">
+      <c r="J7" s="224">
         <v>11</v>
       </c>
-      <c r="K7" s="242">
+      <c r="K7" s="225">
         <v>13</v>
       </c>
       <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="214" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="215" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="226" t="str">
+      <c r="C8" s="209" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="D8" s="226">
+      <c r="D8" s="209">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E8" s="227">
+      <c r="E8" s="210">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="233">
+      <c r="F8" s="216">
         <v>13</v>
       </c>
-      <c r="G8" s="223"/>
-      <c r="H8" s="240" t="s">
+      <c r="G8" s="206"/>
+      <c r="H8" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="241">
+      <c r="I8" s="224">
         <v>9</v>
       </c>
-      <c r="J8" s="241">
+      <c r="J8" s="224">
         <v>10</v>
       </c>
-      <c r="K8" s="242">
+      <c r="K8" s="225">
         <v>12</v>
       </c>
       <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="231" t="s">
+      <c r="A9" s="214" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="232" t="s">
+      <c r="B9" s="215" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="226" t="str">
+      <c r="C9" s="209" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="D9" s="226">
+      <c r="D9" s="209">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E9" s="227">
+      <c r="E9" s="210">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="233">
+      <c r="F9" s="216">
         <v>10</v>
       </c>
-      <c r="G9" s="223"/>
-      <c r="H9" s="243" t="s">
+      <c r="G9" s="206"/>
+      <c r="H9" s="226" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="244">
+      <c r="I9" s="227">
         <v>8</v>
       </c>
-      <c r="J9" s="244">
+      <c r="J9" s="227">
         <v>9</v>
       </c>
-      <c r="K9" s="245">
+      <c r="K9" s="228">
         <v>11</v>
       </c>
       <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="214" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="232" t="s">
+      <c r="B10" s="215" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="226" t="str">
+      <c r="C10" s="209" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="D10" s="226">
+      <c r="D10" s="209">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="227">
+      <c r="E10" s="210">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F10" s="233">
+      <c r="F10" s="216">
         <v>11</v>
       </c>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
       <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="214" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="215" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="226" t="str">
+      <c r="C11" s="209" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="D11" s="226">
+      <c r="D11" s="209">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E11" s="227">
+      <c r="E11" s="210">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F11" s="233">
+      <c r="F11" s="216">
         <v>11</v>
       </c>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
       <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="218" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="226" t="str">
+      <c r="C12" s="209" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="D12" s="226">
+      <c r="D12" s="209">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="227">
+      <c r="E12" s="210">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F12" s="233">
+      <c r="F12" s="216">
         <v>9</v>
       </c>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="206"/>
       <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="223"/>
-      <c r="B13" s="223"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
+      <c r="A13" s="206"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
       <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="247" t="s">
+      <c r="A14" s="230" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="248"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="248"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="248"/>
-      <c r="G14" s="248"/>
-      <c r="H14" s="248"/>
-      <c r="I14" s="248"/>
-      <c r="J14" s="248"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="231"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="231"/>
       <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="250" t="s">
+      <c r="A15" s="233" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248"/>
-      <c r="H15" s="248"/>
-      <c r="I15" s="248"/>
-      <c r="J15" s="248"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="231"/>
       <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="250" t="s">
+      <c r="A16" s="233" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="248"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="248"/>
-      <c r="J16" s="248"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="231"/>
       <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="250" t="s">
+      <c r="A17" s="233" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="248"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248"/>
-      <c r="H17" s="248"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="248"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="231"/>
       <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="223"/>
-      <c r="B18" s="223"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
+      <c r="A18" s="206"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="223"/>
-      <c r="B19" s="223"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
+      <c r="A19" s="206"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
       <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="223"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
+      <c r="A20" s="206"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
       <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="223"/>
-      <c r="B21" s="223"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
+      <c r="A21" s="206"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="223"/>
-      <c r="B22" s="223"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
+      <c r="A22" s="206"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="223"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
       <c r="K23" s="58"/>
     </row>
   </sheetData>
@@ -12935,99 +13049,99 @@
       <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="253"/>
-      <c r="B3" s="254">
+      <c r="A3" s="236"/>
+      <c r="B3" s="237">
         <v>1996</v>
       </c>
-      <c r="C3" s="255">
+      <c r="C3" s="238">
         <v>1997</v>
       </c>
-      <c r="D3" s="256">
+      <c r="D3" s="239">
         <v>1998</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="240" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="258">
+      <c r="B4" s="241">
         <v>2500000</v>
       </c>
-      <c r="C4" s="259">
+      <c r="C4" s="242">
         <v>1600000</v>
       </c>
-      <c r="D4" s="260">
+      <c r="D4" s="243">
         <v>1800000</v>
       </c>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="244" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="262">
+      <c r="B5" s="245">
         <v>1500000</v>
       </c>
-      <c r="C5" s="263">
+      <c r="C5" s="246">
         <v>1200000</v>
       </c>
-      <c r="D5" s="264">
+      <c r="D5" s="247">
         <v>1000000</v>
       </c>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="265" t="s">
+      <c r="A6" s="248" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="266">
+      <c r="B6" s="249">
         <v>1400000</v>
       </c>
-      <c r="C6" s="267">
+      <c r="C6" s="250">
         <v>1800000</v>
       </c>
-      <c r="D6" s="268">
+      <c r="D6" s="251">
         <v>1700000</v>
       </c>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13040,379 +13154,379 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="102" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="102" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.42578125" style="102" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="102"/>
+    <col min="1" max="1" width="7.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="100" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="99" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:7" s="97" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A1" s="303" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-    </row>
-    <row r="2" spans="1:7" s="99" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="125" t="s">
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+    </row>
+    <row r="2" spans="1:7" s="97" customFormat="1" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="126" t="s">
+      <c r="G2" s="122" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickTop="1">
-      <c r="A3" s="127">
+      <c r="A3" s="123">
         <v>1</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="129" t="str">
+      <c r="C3" s="125" t="str">
         <f>VLOOKUP(LEFT(B3,1),$A$12:$B$14,2,0)</f>
         <v>Xăng</v>
       </c>
-      <c r="D3" s="128">
+      <c r="D3" s="124">
         <v>30</v>
       </c>
-      <c r="E3" s="129">
+      <c r="E3" s="125">
         <f>VLOOKUP(LEFT(B3,1),$A$12:$D$14,IF(MID(B3,2,1)="L",4,3),0)*D3</f>
         <v>723600</v>
       </c>
-      <c r="F3" s="129">
+      <c r="F3" s="125">
         <f>VLOOKUP(VALUE(RIGHT(B3)),$E$12:$F$14,2,0)*E3</f>
         <v>14472</v>
       </c>
-      <c r="G3" s="130">
+      <c r="G3" s="126">
         <f>SUM(E3:F3)</f>
         <v>738072</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="119">
+      <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="101" t="str">
+      <c r="C4" s="99" t="str">
         <f t="shared" ref="C4:C8" si="0">VLOOKUP(LEFT(B4,1),$A$12:$B$14,2,0)</f>
         <v>Dầu</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="98">
         <v>10</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="99">
         <f t="shared" ref="E4:E8" si="1">VLOOKUP(LEFT(B4,1),$A$12:$D$14,IF(MID(B4,2,1)="L",4,3),0)*D4</f>
         <v>216000</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="99">
         <f t="shared" ref="F4:F8" si="2">VLOOKUP(VALUE(RIGHT(B4)),$E$12:$F$14,2,0)*E4</f>
         <v>4320</v>
       </c>
-      <c r="G4" s="120">
+      <c r="G4" s="118">
         <f t="shared" ref="G4:G8" si="3">SUM(E4:F4)</f>
         <v>220320</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="119">
+      <c r="A5" s="117">
         <v>3</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="101" t="str">
+      <c r="C5" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Nhớt</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="98">
         <v>50</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="99">
         <f t="shared" si="1"/>
         <v>4750000</v>
       </c>
-      <c r="F5" s="101">
+      <c r="F5" s="99">
         <f t="shared" si="2"/>
         <v>332500.00000000006</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="118">
         <f t="shared" si="3"/>
         <v>5082500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="119">
+      <c r="A6" s="117">
         <v>4</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="101" t="str">
+      <c r="C6" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Dầu</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="98">
         <v>60</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="99">
         <f t="shared" si="1"/>
         <v>1321800</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="99">
         <f t="shared" si="2"/>
         <v>26436</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="118">
         <f t="shared" si="3"/>
         <v>1348236</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="119">
+      <c r="A7" s="117">
         <v>5</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="101" t="str">
+      <c r="C7" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Xăng</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="98">
         <v>25</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="99">
         <f t="shared" si="1"/>
         <v>591250</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="99">
         <f t="shared" si="2"/>
         <v>29562.5</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="118">
         <f t="shared" si="3"/>
         <v>620812.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="119">
+      <c r="A8" s="117">
         <v>6</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="101" t="str">
+      <c r="C8" s="99" t="str">
         <f t="shared" si="0"/>
         <v>Xăng</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="98">
         <v>35</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="99">
         <f t="shared" si="1"/>
         <v>827750</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="99">
         <f t="shared" si="2"/>
         <v>16555</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="118">
         <f t="shared" si="3"/>
         <v>844305</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123">
+      <c r="B9" s="306"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119">
         <f>SUM(E3:E8)</f>
         <v>8430400</v>
       </c>
-      <c r="F9" s="123">
+      <c r="F9" s="119">
         <f>SUM(F3:F8)</f>
         <v>423845.50000000006</v>
       </c>
-      <c r="G9" s="124">
+      <c r="G9" s="120">
         <f>SUM(G3:G8)</f>
         <v>8854245.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="99" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A10" s="98" t="s">
+    <row r="10" spans="1:7" s="97" customFormat="1" ht="18" thickTop="1" thickBot="1">
+      <c r="A10" s="304" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-    </row>
-    <row r="11" spans="1:7" s="99" customFormat="1" ht="51" thickTop="1" thickBot="1">
-      <c r="A11" s="103" t="s">
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+    </row>
+    <row r="11" spans="1:7" s="97" customFormat="1" ht="51" thickTop="1" thickBot="1">
+      <c r="A11" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="106">
         <v>23650</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="106">
         <v>24120</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="106">
         <v>1</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="107">
         <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="109">
         <v>21600</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="109">
         <v>22030</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="109">
         <v>2</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="110">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="114">
+      <c r="C14" s="112">
         <v>95000</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="112">
         <v>100000</v>
       </c>
-      <c r="E14" s="114">
+      <c r="E14" s="112">
         <v>3</v>
       </c>
-      <c r="F14" s="115">
+      <c r="F14" s="113">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1"/>
     <row r="16" spans="1:7">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="100" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="100" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="117"/>
-      <c r="B18" s="102" t="s">
+      <c r="A18" s="115"/>
+      <c r="B18" s="100" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="100" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="117"/>
-      <c r="B20" s="102" t="s">
+      <c r="A20" s="115"/>
+      <c r="B20" s="100" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="100" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="117"/>
-      <c r="B22" s="102" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="116" t="s">
         <v>98</v>
       </c>
     </row>
